--- a/input/raw_data/data_extraction/data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/data_extraction_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Library/Mobile Documents/com~apple~CloudDocs/Dev/data/msc/dissertation/iifo_data/lit_search_4/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE81859-E4DB-1747-8210-FD9E46B7E81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DDC13E-0609-3945-B5CA-D37D19A0689F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="13080" windowWidth="20560" windowHeight="12220" xr2:uid="{A46F0182-2702-C049-8D59-35AAB89CA329}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="391">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1150,6 +1150,63 @@
   </si>
   <si>
     <t>Makkah, Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Department of General Surgery, Gebze Fatih State Hospital</t>
+  </si>
+  <si>
+    <t>Kocaeli, Turkey</t>
+  </si>
+  <si>
+    <t>10.4328/ACAM.22190</t>
+  </si>
+  <si>
+    <t>Akgul, N.C.</t>
+  </si>
+  <si>
+    <t>Farhadi, F.</t>
+  </si>
+  <si>
+    <t>Department of General Surgery, School of Medicine, Ahvaz Jundishapur University of Medical Sciences</t>
+  </si>
+  <si>
+    <t>Ahvaz, Iran</t>
+  </si>
+  <si>
+    <t>10.1186/s13256-024-04672-3</t>
+  </si>
+  <si>
+    <t>Dranova, S.</t>
+  </si>
+  <si>
+    <t>ENT Department, Frimley Park Hospital</t>
+  </si>
+  <si>
+    <t>Frimley, UK</t>
+  </si>
+  <si>
+    <t>10.1017/ S0022215124000033</t>
+  </si>
+  <si>
+    <t>Buils, F.J.</t>
+  </si>
+  <si>
+    <t>Department of General and Digestive Surgery. Sant Joan University Hospital</t>
+  </si>
+  <si>
+    <t>Reus, Tarragona, Spain</t>
+  </si>
+  <si>
+    <t>Bhumi, S.</t>
+  </si>
+  <si>
+    <t>Gastroenterology and Hepatology, New York Presbyterian</t>
+  </si>
+  <si>
+    <t>Queens, New York, USA</t>
+  </si>
+  <si>
+    <t>10.7759/cureus.58327</t>
   </si>
 </sst>
 </file>
@@ -2013,8 +2070,8 @@
   <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4462,70 +4519,142 @@
       <c r="A102">
         <v>476</v>
       </c>
+      <c r="B102" t="s">
+        <v>375</v>
+      </c>
       <c r="C102">
         <v>2024</v>
       </c>
       <c r="F102" t="s">
         <v>105</v>
       </c>
+      <c r="G102" t="s">
+        <v>119</v>
+      </c>
+      <c r="H102" t="s">
+        <v>372</v>
+      </c>
+      <c r="I102" t="s">
+        <v>373</v>
+      </c>
+      <c r="J102" t="s">
+        <v>374</v>
+      </c>
       <c r="K102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>482</v>
       </c>
+      <c r="B103" t="s">
+        <v>376</v>
+      </c>
       <c r="C103">
         <v>2024</v>
       </c>
       <c r="F103" t="s">
         <v>221</v>
       </c>
+      <c r="G103" t="s">
+        <v>119</v>
+      </c>
+      <c r="H103" t="s">
+        <v>377</v>
+      </c>
+      <c r="I103" t="s">
+        <v>378</v>
+      </c>
+      <c r="J103" t="s">
+        <v>379</v>
+      </c>
       <c r="K103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>483</v>
       </c>
+      <c r="B104" t="s">
+        <v>380</v>
+      </c>
       <c r="C104">
         <v>2024</v>
       </c>
       <c r="F104" t="s">
         <v>106</v>
       </c>
+      <c r="G104" t="s">
+        <v>119</v>
+      </c>
+      <c r="H104" t="s">
+        <v>381</v>
+      </c>
+      <c r="I104" t="s">
+        <v>382</v>
+      </c>
+      <c r="J104" t="s">
+        <v>383</v>
+      </c>
       <c r="K104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>484</v>
       </c>
+      <c r="B105" t="s">
+        <v>384</v>
+      </c>
       <c r="C105">
         <v>2024</v>
       </c>
       <c r="F105" t="s">
         <v>107</v>
       </c>
+      <c r="G105" t="s">
+        <v>119</v>
+      </c>
+      <c r="H105" t="s">
+        <v>385</v>
+      </c>
+      <c r="I105" t="s">
+        <v>386</v>
+      </c>
       <c r="K105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>485</v>
       </c>
+      <c r="B106" t="s">
+        <v>387</v>
+      </c>
       <c r="C106">
         <v>2024</v>
       </c>
       <c r="F106" t="s">
         <v>108</v>
       </c>
+      <c r="G106" t="s">
+        <v>119</v>
+      </c>
+      <c r="H106" t="s">
+        <v>388</v>
+      </c>
+      <c r="I106" t="s">
+        <v>389</v>
+      </c>
+      <c r="J106" t="s">
+        <v>390</v>
+      </c>
       <c r="K106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/input/raw_data/data_extraction/data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/data_extraction_end.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Library/Mobile Documents/com~apple~CloudDocs/Dev/data/msc/dissertation/iifo_data/lit_search_4/input/raw_data/data_extraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DDC13E-0609-3945-B5CA-D37D19A0689F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95F409AA-4A8C-3A46-A6F4-1FF7850FDF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="13080" windowWidth="20560" windowHeight="12220" xr2:uid="{A46F0182-2702-C049-8D59-35AAB89CA329}"/>
+    <workbookView xWindow="19540" yWindow="8960" windowWidth="20560" windowHeight="12220" xr2:uid="{A46F0182-2702-C049-8D59-35AAB89CA329}"/>
   </bookViews>
   <sheets>
     <sheet name="data_extraction_start" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="403">
   <si>
     <t>Study_ID</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Publication_Year</t>
   </si>
   <si>
-    <t>Authors</t>
-  </si>
-  <si>
-    <t>Publication_Title</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -366,9 +360,6 @@
     <t>Richardson, M.H.</t>
   </si>
   <si>
-    <t>The Boston Medical And Surgical Journal</t>
-  </si>
-  <si>
     <t>Case Series</t>
   </si>
   <si>
@@ -384,9 +375,6 @@
     <t>Tanigawa, K.</t>
   </si>
   <si>
-    <t>Chinese Medical Journal</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -1207,6 +1195,54 @@
   </si>
   <si>
     <t>10.7759/cureus.58327</t>
+  </si>
+  <si>
+    <t>O'Sullivan, S.T.</t>
+  </si>
+  <si>
+    <t>Population_Type</t>
+  </si>
+  <si>
+    <t>Mixed Prisoner Psychiatric Inpatient Population</t>
+  </si>
+  <si>
+    <t>Department of Plastic &amp; Reconstructive Surgery, Cork Regmnal Hospital</t>
+  </si>
+  <si>
+    <t>Wilton, Cork, Ireland</t>
+  </si>
+  <si>
+    <t>10.1007/bf02943095</t>
+  </si>
+  <si>
+    <t>Palto, R.</t>
+  </si>
+  <si>
+    <t>Urban County Hospital</t>
+  </si>
+  <si>
+    <t>Los Angeles, California, USA</t>
+  </si>
+  <si>
+    <t>10.1016/j.gie.2008.05.072</t>
+  </si>
+  <si>
+    <t>Predominantly intentional ingestion, in a lower socioeconomic status population</t>
+  </si>
+  <si>
+    <t>Rhode Island Hospital</t>
+  </si>
+  <si>
+    <t>Providence, Rhode Island, USA</t>
+  </si>
+  <si>
+    <t>10.1016/j.cgh.2010.07.013</t>
+  </si>
+  <si>
+    <t>Does not report endoscopy rates.</t>
+  </si>
+  <si>
+    <t>Huang, B.L.</t>
   </si>
 </sst>
 </file>
@@ -2067,21 +2103,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6759A01A-4FB2-4345-9089-7E4839849A4B}">
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H111" sqref="H111"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2098,2563 +2134,2599 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <v>1886</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3">
         <v>1993</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>46</v>
       </c>
+      <c r="B4" t="s">
+        <v>387</v>
+      </c>
       <c r="C4">
         <v>1996</v>
       </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>389</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+      <c r="H4" t="s">
+        <v>391</v>
+      </c>
+      <c r="I4" t="s">
+        <v>392</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C5">
         <v>1996</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C6">
         <v>1997</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="J6" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <v>1998</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="J7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C8">
         <v>1998</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C9">
         <v>2004</v>
       </c>
-      <c r="F9" t="s">
-        <v>17</v>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10">
         <v>2006</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J10" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C11">
         <v>2007</v>
       </c>
-      <c r="F11" t="s">
-        <v>19</v>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C12">
         <v>2007</v>
       </c>
-      <c r="F12" t="s">
-        <v>20</v>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C13">
         <v>2008</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" t="s">
-        <v>153</v>
-      </c>
-      <c r="K13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>131</v>
       </c>
+      <c r="B14" t="s">
+        <v>393</v>
+      </c>
       <c r="C14">
         <v>2009</v>
       </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>218</v>
+      </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>397</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
-      </c>
-      <c r="K14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+      <c r="H14" t="s">
+        <v>395</v>
+      </c>
+      <c r="I14" t="s">
+        <v>396</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C15">
         <v>2010</v>
       </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>139</v>
       </c>
+      <c r="B16" t="s">
+        <v>402</v>
+      </c>
       <c r="C16">
         <v>2010</v>
       </c>
-      <c r="F16" t="s">
-        <v>24</v>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>218</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
-      </c>
-      <c r="K16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+      <c r="H16" t="s">
+        <v>399</v>
+      </c>
+      <c r="I16" t="s">
+        <v>400</v>
+      </c>
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C17">
         <v>2011</v>
       </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>149</v>
       </c>
       <c r="C18">
         <v>2011</v>
       </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>168</v>
-      </c>
-      <c r="K18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C19">
         <v>2012</v>
       </c>
-      <c r="F19" t="s">
-        <v>27</v>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="H19" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C20">
         <v>2012</v>
       </c>
-      <c r="F20" t="s">
-        <v>28</v>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="H20" t="s">
-        <v>160</v>
-      </c>
-      <c r="I20" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C21">
         <v>2011</v>
       </c>
-      <c r="F21" t="s">
-        <v>29</v>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="H21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I21" t="s">
-        <v>165</v>
-      </c>
-      <c r="K21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C22">
         <v>2012</v>
       </c>
-      <c r="F22" t="s">
-        <v>30</v>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H22" t="s">
-        <v>166</v>
-      </c>
-      <c r="I22" t="s">
-        <v>167</v>
-      </c>
-      <c r="K22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="J22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C23">
         <v>2012</v>
       </c>
-      <c r="F23" t="s">
-        <v>31</v>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>164</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H23" t="s">
-        <v>170</v>
-      </c>
-      <c r="I23" t="s">
-        <v>143</v>
-      </c>
-      <c r="K23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="J23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>192</v>
       </c>
       <c r="C24">
         <v>2013</v>
       </c>
-      <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>168</v>
-      </c>
-      <c r="K24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>195</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C25">
         <v>2014</v>
       </c>
-      <c r="F25" t="s">
-        <v>33</v>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="H25" t="s">
-        <v>172</v>
-      </c>
-      <c r="I25" t="s">
-        <v>172</v>
-      </c>
-      <c r="K25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="J25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>214</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C26">
         <v>2015</v>
       </c>
-      <c r="F26" t="s">
-        <v>34</v>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="H26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26" t="s">
-        <v>175</v>
-      </c>
-      <c r="K26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="J26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>217</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C27">
         <v>2015</v>
       </c>
-      <c r="F27" t="s">
-        <v>35</v>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="H27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J27" t="s">
-        <v>179</v>
-      </c>
-      <c r="K27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>219</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C28">
         <v>2015</v>
       </c>
-      <c r="F28" t="s">
-        <v>36</v>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="H28" t="s">
-        <v>181</v>
-      </c>
-      <c r="I28" t="s">
-        <v>180</v>
-      </c>
-      <c r="K28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="J28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>226</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C29">
         <v>2015</v>
       </c>
-      <c r="F29" t="s">
-        <v>37</v>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="H29" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I29" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>231</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C30">
         <v>2015</v>
       </c>
-      <c r="F30" t="s">
-        <v>38</v>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="H30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J30" t="s">
-        <v>190</v>
-      </c>
-      <c r="K30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>238</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C31">
         <v>2016</v>
       </c>
-      <c r="F31" t="s">
-        <v>39</v>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="H31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I31" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J31" t="s">
-        <v>192</v>
-      </c>
-      <c r="K31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>244</v>
       </c>
       <c r="C32">
         <v>2016</v>
       </c>
-      <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s">
-        <v>195</v>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" t="s">
+        <v>192</v>
       </c>
       <c r="J32" t="s">
-        <v>196</v>
-      </c>
-      <c r="K32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>256</v>
       </c>
       <c r="C33">
         <v>2016</v>
       </c>
-      <c r="F33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" t="s">
-        <v>168</v>
-      </c>
-      <c r="K33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>260</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C34">
         <v>2017</v>
       </c>
-      <c r="F34" t="s">
-        <v>42</v>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>115</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="H34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J34" t="s">
-        <v>200</v>
-      </c>
-      <c r="K34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>261</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C35">
         <v>2017</v>
       </c>
-      <c r="F35" t="s">
-        <v>43</v>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>115</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="H35" t="s">
-        <v>203</v>
-      </c>
-      <c r="I35" t="s">
-        <v>202</v>
-      </c>
-      <c r="K35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="J35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>263</v>
       </c>
       <c r="C36">
         <v>2017</v>
       </c>
-      <c r="F36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" t="s">
-        <v>168</v>
-      </c>
-      <c r="K36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+      <c r="J36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>266</v>
       </c>
       <c r="C37">
         <v>2017</v>
       </c>
-      <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s">
-        <v>168</v>
-      </c>
-      <c r="K37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>164</v>
+      </c>
+      <c r="J37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>273</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C38">
         <v>2017</v>
       </c>
-      <c r="F38" t="s">
-        <v>46</v>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
       </c>
       <c r="G38" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I38" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J38" t="s">
-        <v>205</v>
-      </c>
-      <c r="K38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>274</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C39">
         <v>2017</v>
       </c>
-      <c r="F39" t="s">
-        <v>47</v>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>115</v>
       </c>
       <c r="G39" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="H39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J39" t="s">
-        <v>211</v>
-      </c>
-      <c r="K39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>277</v>
       </c>
       <c r="C40">
         <v>2017</v>
       </c>
-      <c r="F40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" t="s">
-        <v>168</v>
-      </c>
-      <c r="K40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>278</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C41">
         <v>2017</v>
       </c>
-      <c r="F41" t="s">
-        <v>49</v>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>115</v>
       </c>
       <c r="G41" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="H41" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I41" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J41" t="s">
-        <v>214</v>
-      </c>
-      <c r="K41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>288</v>
       </c>
       <c r="C42">
         <v>2018</v>
       </c>
-      <c r="F42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s">
-        <v>222</v>
-      </c>
-      <c r="K42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>218</v>
+      </c>
+      <c r="J42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>292</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C43">
         <v>2018</v>
       </c>
-      <c r="F43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" t="s">
-        <v>119</v>
-      </c>
-      <c r="K43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>115</v>
+      </c>
+      <c r="J43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>293</v>
       </c>
       <c r="C44">
         <v>2018</v>
       </c>
-      <c r="F44" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>300</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C45">
         <v>2018</v>
       </c>
-      <c r="F45" t="s">
-        <v>53</v>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>115</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="H45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I45" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J45" t="s">
-        <v>231</v>
-      </c>
-      <c r="K45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>307</v>
       </c>
       <c r="C46">
         <v>2019</v>
       </c>
-      <c r="F46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" t="s">
-        <v>222</v>
-      </c>
-      <c r="K46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>218</v>
+      </c>
+      <c r="J46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>311</v>
       </c>
       <c r="B47" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C47">
         <v>2019</v>
       </c>
-      <c r="F47" t="s">
-        <v>55</v>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>115</v>
       </c>
       <c r="G47" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="H47" t="s">
-        <v>227</v>
-      </c>
-      <c r="I47" t="s">
-        <v>228</v>
-      </c>
-      <c r="K47" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="J47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>312</v>
       </c>
       <c r="B48" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C48">
         <v>2019</v>
       </c>
-      <c r="F48" t="s">
-        <v>216</v>
-      </c>
-      <c r="G48" t="s">
-        <v>222</v>
-      </c>
-      <c r="K48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" t="s">
+        <v>218</v>
+      </c>
+      <c r="J48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>314</v>
       </c>
       <c r="B49" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C49">
         <v>2019</v>
       </c>
-      <c r="F49" t="s">
-        <v>56</v>
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" t="s">
+        <v>115</v>
       </c>
       <c r="G49" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="H49" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I49" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J49" t="s">
-        <v>235</v>
-      </c>
-      <c r="K49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>319</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C50">
         <v>2019</v>
       </c>
-      <c r="F50" t="s">
-        <v>57</v>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s">
+        <v>115</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="H50" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I50" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J50" t="s">
-        <v>239</v>
-      </c>
-      <c r="K50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>321</v>
       </c>
       <c r="C51">
         <v>2019</v>
       </c>
-      <c r="F51" t="s">
-        <v>58</v>
-      </c>
-      <c r="K51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>322</v>
       </c>
       <c r="B52" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C52">
         <v>2019</v>
       </c>
-      <c r="F52" t="s">
-        <v>59</v>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" t="s">
+        <v>115</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="H52" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I52" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J52" t="s">
-        <v>241</v>
-      </c>
-      <c r="K52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>327</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C53">
         <v>2019</v>
       </c>
-      <c r="F53" t="s">
-        <v>60</v>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" t="s">
+        <v>240</v>
       </c>
       <c r="H53" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I53" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J53" t="s">
-        <v>246</v>
-      </c>
-      <c r="K53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>328</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C54">
         <v>2019</v>
       </c>
-      <c r="F54" t="s">
-        <v>61</v>
+      <c r="D54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" t="s">
+        <v>115</v>
       </c>
       <c r="G54" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="H54" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I54" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J54" t="s">
-        <v>251</v>
-      </c>
-      <c r="K54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>333</v>
       </c>
       <c r="B55" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C55">
         <v>2020</v>
       </c>
-      <c r="F55" t="s">
-        <v>217</v>
+      <c r="D55" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" t="s">
+        <v>115</v>
       </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>249</v>
       </c>
       <c r="H55" t="s">
-        <v>253</v>
-      </c>
-      <c r="I55" t="s">
-        <v>254</v>
-      </c>
-      <c r="K55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="J55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>336</v>
       </c>
       <c r="C56">
         <v>2020</v>
       </c>
-      <c r="F56" t="s">
-        <v>62</v>
-      </c>
-      <c r="K56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>342</v>
       </c>
       <c r="C57">
         <v>2020</v>
       </c>
-      <c r="F57" t="s">
-        <v>63</v>
-      </c>
-      <c r="K57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+      <c r="J57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>345</v>
       </c>
       <c r="B58" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C58">
         <v>2020</v>
       </c>
-      <c r="F58" t="s">
-        <v>64</v>
+      <c r="D58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" t="s">
+        <v>108</v>
       </c>
       <c r="G58" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="H58" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I58" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J58" t="s">
-        <v>257</v>
-      </c>
-      <c r="K58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>346</v>
       </c>
       <c r="C59">
         <v>2020</v>
       </c>
-      <c r="F59" t="s">
-        <v>65</v>
-      </c>
-      <c r="K59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+      <c r="J59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>348</v>
       </c>
       <c r="B60" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C60">
         <v>2020</v>
       </c>
-      <c r="F60" t="s">
-        <v>66</v>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" t="s">
+        <v>115</v>
       </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="H60" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I60" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J60" t="s">
-        <v>261</v>
-      </c>
-      <c r="K60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>349</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C61">
         <v>2020</v>
       </c>
-      <c r="F61" t="s">
-        <v>67</v>
+      <c r="D61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" t="s">
+        <v>115</v>
       </c>
       <c r="G61" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="H61" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I61" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J61" t="s">
-        <v>263</v>
-      </c>
-      <c r="K61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>353</v>
       </c>
       <c r="B62" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C62">
         <v>2020</v>
       </c>
-      <c r="F62" t="s">
-        <v>68</v>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" t="s">
+        <v>115</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
+        <v>265</v>
       </c>
       <c r="H62" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I62" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J62" t="s">
-        <v>268</v>
-      </c>
-      <c r="K62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>354</v>
       </c>
       <c r="B63" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C63">
         <v>2020</v>
       </c>
-      <c r="F63" t="s">
-        <v>69</v>
+      <c r="D63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" t="s">
+        <v>108</v>
       </c>
       <c r="G63" t="s">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="H63" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I63" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="J63" t="s">
-        <v>271</v>
-      </c>
-      <c r="K63" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>356</v>
       </c>
       <c r="C64">
         <v>2020</v>
       </c>
-      <c r="F64" t="s">
-        <v>70</v>
-      </c>
-      <c r="K64" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="J64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>359</v>
       </c>
       <c r="B65" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C65">
         <v>2020</v>
       </c>
-      <c r="F65" t="s">
-        <v>71</v>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" t="s">
+        <v>115</v>
       </c>
       <c r="G65" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="H65" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I65" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J65" t="s">
-        <v>278</v>
-      </c>
-      <c r="K65" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>360</v>
       </c>
       <c r="B66" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C66">
         <v>2020</v>
       </c>
-      <c r="F66" t="s">
-        <v>72</v>
+      <c r="D66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" t="s">
+        <v>278</v>
       </c>
       <c r="H66" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I66" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="J66" t="s">
-        <v>280</v>
-      </c>
-      <c r="K66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>369</v>
       </c>
       <c r="B67" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C67">
         <v>2021</v>
       </c>
-      <c r="F67" t="s">
-        <v>73</v>
+      <c r="D67" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" t="s">
+        <v>115</v>
       </c>
       <c r="G67" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="H67" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I67" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J67" t="s">
-        <v>285</v>
-      </c>
-      <c r="K67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>370</v>
       </c>
       <c r="B68" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C68">
         <v>2021</v>
       </c>
-      <c r="F68" t="s">
-        <v>74</v>
+      <c r="D68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" t="s">
+        <v>115</v>
       </c>
       <c r="G68" t="s">
-        <v>119</v>
+        <v>284</v>
       </c>
       <c r="H68" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I68" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J68" t="s">
-        <v>287</v>
-      </c>
-      <c r="K68" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>373</v>
       </c>
       <c r="B69" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C69">
         <v>2021</v>
       </c>
-      <c r="F69" t="s">
-        <v>75</v>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" t="s">
+        <v>115</v>
       </c>
       <c r="G69" t="s">
-        <v>119</v>
+        <v>287</v>
       </c>
       <c r="H69" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I69" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J69" t="s">
-        <v>293</v>
-      </c>
-      <c r="K69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>375</v>
       </c>
       <c r="C70">
         <v>2021</v>
       </c>
-      <c r="F70" t="s">
-        <v>76</v>
-      </c>
-      <c r="K70" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>74</v>
+      </c>
+      <c r="J70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>377</v>
       </c>
       <c r="C71">
         <v>2021</v>
       </c>
-      <c r="F71" t="s">
-        <v>77</v>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" t="s">
+        <v>291</v>
       </c>
       <c r="H71" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I71" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J71" t="s">
-        <v>297</v>
-      </c>
-      <c r="K71" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>380</v>
       </c>
       <c r="C72">
         <v>2021</v>
       </c>
-      <c r="F72" t="s">
-        <v>78</v>
-      </c>
-      <c r="K72" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>76</v>
+      </c>
+      <c r="J72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>382</v>
       </c>
       <c r="B73" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C73">
         <v>2021</v>
       </c>
-      <c r="F73" t="s">
-        <v>79</v>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s">
+        <v>294</v>
       </c>
       <c r="H73" t="s">
-        <v>298</v>
+        <v>142</v>
       </c>
       <c r="I73" t="s">
-        <v>146</v>
+        <v>295</v>
       </c>
       <c r="J73" t="s">
-        <v>299</v>
-      </c>
-      <c r="K73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>386</v>
       </c>
       <c r="B74" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C74">
         <v>2021</v>
       </c>
-      <c r="F74" t="s">
-        <v>80</v>
+      <c r="D74" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" t="s">
+        <v>115</v>
       </c>
       <c r="G74" t="s">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="H74" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I74" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J74" t="s">
-        <v>303</v>
-      </c>
-      <c r="K74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>399</v>
       </c>
       <c r="B75" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C75">
         <v>2022</v>
       </c>
-      <c r="F75" t="s">
-        <v>81</v>
+      <c r="D75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" t="s">
+        <v>115</v>
       </c>
       <c r="G75" t="s">
-        <v>119</v>
+        <v>302</v>
       </c>
       <c r="H75" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J75" t="s">
-        <v>308</v>
-      </c>
-      <c r="K75" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>401</v>
       </c>
       <c r="C76">
         <v>2022</v>
       </c>
-      <c r="F76" t="s">
-        <v>82</v>
-      </c>
-      <c r="K76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>80</v>
+      </c>
+      <c r="J76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>402</v>
       </c>
       <c r="B77" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C77">
         <v>2022</v>
       </c>
-      <c r="F77" t="s">
-        <v>83</v>
+      <c r="D77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" t="s">
+        <v>115</v>
       </c>
       <c r="G77" t="s">
-        <v>119</v>
+        <v>307</v>
       </c>
       <c r="H77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I77" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J77" t="s">
-        <v>310</v>
-      </c>
-      <c r="K77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>405</v>
       </c>
       <c r="B78" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C78">
         <v>2022</v>
       </c>
-      <c r="F78" t="s">
-        <v>84</v>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" t="s">
+        <v>115</v>
       </c>
       <c r="G78" t="s">
-        <v>119</v>
+        <v>311</v>
       </c>
       <c r="H78" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I78" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="J78" t="s">
-        <v>314</v>
-      </c>
-      <c r="K78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>406</v>
       </c>
       <c r="B79" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C79">
         <v>2022</v>
       </c>
-      <c r="F79" t="s">
-        <v>85</v>
+      <c r="D79" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" t="s">
+        <v>115</v>
       </c>
       <c r="G79" t="s">
-        <v>119</v>
+        <v>316</v>
       </c>
       <c r="H79" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I79" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J79" t="s">
-        <v>318</v>
-      </c>
-      <c r="K79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>409</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C80">
         <v>2022</v>
       </c>
-      <c r="F80" t="s">
-        <v>86</v>
+      <c r="D80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" t="s">
+        <v>115</v>
       </c>
       <c r="G80" t="s">
-        <v>119</v>
+        <v>318</v>
       </c>
       <c r="H80" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I80" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J80" t="s">
-        <v>324</v>
-      </c>
-      <c r="K80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>414</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C81">
         <v>2022</v>
       </c>
-      <c r="F81" t="s">
-        <v>87</v>
+      <c r="D81" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" t="s">
+        <v>115</v>
       </c>
       <c r="G81" t="s">
-        <v>119</v>
+        <v>322</v>
       </c>
       <c r="H81" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I81" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J81" t="s">
-        <v>325</v>
-      </c>
-      <c r="K81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>416</v>
       </c>
       <c r="B82" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C82">
         <v>2022</v>
       </c>
-      <c r="F82" t="s">
-        <v>88</v>
+      <c r="D82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" t="s">
+        <v>115</v>
       </c>
       <c r="G82" t="s">
-        <v>119</v>
+        <v>325</v>
       </c>
       <c r="H82" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I82" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J82" t="s">
-        <v>331</v>
-      </c>
-      <c r="K82" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>421</v>
       </c>
       <c r="B83" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C83">
         <v>2022</v>
       </c>
-      <c r="F83" t="s">
-        <v>89</v>
+      <c r="D83" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" t="s">
+        <v>108</v>
       </c>
       <c r="G83" t="s">
-        <v>111</v>
+        <v>329</v>
       </c>
       <c r="H83" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I83" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J83" t="s">
-        <v>335</v>
-      </c>
-      <c r="K83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>428</v>
       </c>
       <c r="C84">
         <v>2023</v>
       </c>
-      <c r="F84" t="s">
-        <v>90</v>
-      </c>
-      <c r="K84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>88</v>
+      </c>
+      <c r="J84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>429</v>
       </c>
       <c r="C85">
         <v>2023</v>
       </c>
-      <c r="F85" t="s">
-        <v>91</v>
-      </c>
-      <c r="K85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>89</v>
+      </c>
+      <c r="J85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>431</v>
       </c>
       <c r="B86" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C86">
         <v>2023</v>
       </c>
-      <c r="F86" t="s">
-        <v>218</v>
+      <c r="D86" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" t="s">
+        <v>115</v>
       </c>
       <c r="G86" t="s">
-        <v>119</v>
+        <v>333</v>
       </c>
       <c r="H86" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I86" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="J86" t="s">
-        <v>336</v>
-      </c>
-      <c r="K86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>432</v>
       </c>
       <c r="C87">
         <v>2023</v>
       </c>
-      <c r="F87" t="s">
-        <v>92</v>
-      </c>
-      <c r="K87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>90</v>
+      </c>
+      <c r="J87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>439</v>
       </c>
       <c r="B88" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C88">
         <v>2023</v>
       </c>
-      <c r="F88" t="s">
-        <v>93</v>
+      <c r="D88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" t="s">
+        <v>115</v>
       </c>
       <c r="G88" t="s">
-        <v>119</v>
+        <v>337</v>
       </c>
       <c r="H88" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J88" t="s">
-        <v>343</v>
-      </c>
-      <c r="K88" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>441</v>
       </c>
       <c r="C89">
         <v>2023</v>
       </c>
-      <c r="F89" t="s">
-        <v>94</v>
-      </c>
-      <c r="K89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>92</v>
+      </c>
+      <c r="J89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>442</v>
       </c>
       <c r="C90">
         <v>2023</v>
       </c>
-      <c r="F90" t="s">
-        <v>95</v>
-      </c>
-      <c r="K90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>93</v>
+      </c>
+      <c r="J90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>443</v>
       </c>
       <c r="B91" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C91">
         <v>2023</v>
       </c>
-      <c r="F91" t="s">
-        <v>96</v>
+      <c r="D91" t="s">
+        <v>94</v>
+      </c>
+      <c r="E91" t="s">
+        <v>115</v>
       </c>
       <c r="G91" t="s">
-        <v>119</v>
+        <v>341</v>
       </c>
       <c r="H91" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I91" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J91" t="s">
-        <v>347</v>
-      </c>
-      <c r="K91" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>444</v>
       </c>
       <c r="B92" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C92">
         <v>2023</v>
       </c>
-      <c r="F92" t="s">
-        <v>97</v>
+      <c r="D92" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" t="s">
+        <v>115</v>
       </c>
       <c r="G92" t="s">
-        <v>119</v>
+        <v>345</v>
       </c>
       <c r="H92" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I92" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J92" t="s">
-        <v>351</v>
-      </c>
-      <c r="K92" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>445</v>
       </c>
       <c r="C93">
         <v>2023</v>
       </c>
-      <c r="F93" t="s">
-        <v>98</v>
-      </c>
-      <c r="K93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>96</v>
+      </c>
+      <c r="J93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>450</v>
       </c>
       <c r="C94">
         <v>2023</v>
       </c>
-      <c r="F94" t="s">
-        <v>219</v>
-      </c>
-      <c r="K94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>215</v>
+      </c>
+      <c r="J94" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>451</v>
       </c>
       <c r="C95">
         <v>2023</v>
       </c>
-      <c r="F95" t="s">
-        <v>99</v>
-      </c>
-      <c r="K95" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>97</v>
+      </c>
+      <c r="J95" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>456</v>
       </c>
       <c r="B96" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C96">
         <v>2023</v>
       </c>
-      <c r="F96" t="s">
-        <v>220</v>
+      <c r="D96" t="s">
+        <v>216</v>
+      </c>
+      <c r="G96" t="s">
+        <v>349</v>
       </c>
       <c r="H96" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I96" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J96" t="s">
-        <v>352</v>
-      </c>
-      <c r="K96" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>460</v>
       </c>
       <c r="B97" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C97">
         <v>2023</v>
       </c>
-      <c r="F97" t="s">
-        <v>100</v>
+      <c r="D97" t="s">
+        <v>98</v>
+      </c>
+      <c r="E97" t="s">
+        <v>115</v>
       </c>
       <c r="G97" t="s">
-        <v>119</v>
+        <v>353</v>
       </c>
       <c r="H97" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I97" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J97" t="s">
-        <v>359</v>
-      </c>
-      <c r="K97" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>461</v>
       </c>
       <c r="C98">
         <v>2023</v>
       </c>
-      <c r="F98" t="s">
-        <v>101</v>
-      </c>
-      <c r="K98" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>99</v>
+      </c>
+      <c r="J98" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>465</v>
       </c>
       <c r="B99" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C99">
         <v>2024</v>
       </c>
-      <c r="F99" t="s">
-        <v>102</v>
+      <c r="D99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" t="s">
+        <v>164</v>
       </c>
       <c r="G99" t="s">
-        <v>168</v>
+        <v>358</v>
       </c>
       <c r="H99" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I99" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="J99" t="s">
-        <v>361</v>
-      </c>
-      <c r="K99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>471</v>
       </c>
       <c r="B100" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C100">
         <v>2024</v>
       </c>
-      <c r="F100" t="s">
-        <v>103</v>
+      <c r="D100" t="s">
+        <v>101</v>
+      </c>
+      <c r="E100" t="s">
+        <v>115</v>
       </c>
       <c r="G100" t="s">
-        <v>119</v>
+        <v>361</v>
       </c>
       <c r="H100" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="I100" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J100" t="s">
-        <v>366</v>
-      </c>
-      <c r="K100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>475</v>
       </c>
       <c r="B101" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C101">
         <v>2024</v>
       </c>
-      <c r="F101" t="s">
-        <v>104</v>
+      <c r="D101" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" t="s">
+        <v>115</v>
       </c>
       <c r="G101" t="s">
-        <v>119</v>
+        <v>365</v>
       </c>
       <c r="H101" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I101" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J101" t="s">
-        <v>368</v>
-      </c>
-      <c r="K101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>476</v>
       </c>
       <c r="B102" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C102">
         <v>2024</v>
       </c>
-      <c r="F102" t="s">
-        <v>105</v>
+      <c r="D102" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" t="s">
+        <v>115</v>
       </c>
       <c r="G102" t="s">
-        <v>119</v>
+        <v>368</v>
       </c>
       <c r="H102" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I102" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J102" t="s">
-        <v>374</v>
-      </c>
-      <c r="K102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>482</v>
       </c>
       <c r="B103" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C103">
         <v>2024</v>
       </c>
-      <c r="F103" t="s">
-        <v>221</v>
+      <c r="D103" t="s">
+        <v>217</v>
+      </c>
+      <c r="E103" t="s">
+        <v>115</v>
       </c>
       <c r="G103" t="s">
-        <v>119</v>
+        <v>373</v>
       </c>
       <c r="H103" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I103" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J103" t="s">
-        <v>379</v>
-      </c>
-      <c r="K103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>483</v>
       </c>
       <c r="B104" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C104">
         <v>2024</v>
       </c>
-      <c r="F104" t="s">
-        <v>106</v>
+      <c r="D104" t="s">
+        <v>104</v>
+      </c>
+      <c r="E104" t="s">
+        <v>115</v>
       </c>
       <c r="G104" t="s">
-        <v>119</v>
+        <v>377</v>
       </c>
       <c r="H104" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I104" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J104" t="s">
-        <v>383</v>
-      </c>
-      <c r="K104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>484</v>
       </c>
       <c r="B105" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C105">
         <v>2024</v>
       </c>
-      <c r="F105" t="s">
-        <v>107</v>
+      <c r="D105" t="s">
+        <v>105</v>
+      </c>
+      <c r="E105" t="s">
+        <v>115</v>
       </c>
       <c r="G105" t="s">
-        <v>119</v>
+        <v>381</v>
       </c>
       <c r="H105" t="s">
-        <v>385</v>
-      </c>
-      <c r="I105" t="s">
-        <v>386</v>
-      </c>
-      <c r="K105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+      <c r="J105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>485</v>
       </c>
       <c r="B106" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C106">
         <v>2024</v>
       </c>
-      <c r="F106" t="s">
-        <v>108</v>
+      <c r="D106" t="s">
+        <v>106</v>
+      </c>
+      <c r="E106" t="s">
+        <v>115</v>
       </c>
       <c r="G106" t="s">
-        <v>119</v>
+        <v>384</v>
       </c>
       <c r="H106" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I106" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J106" t="s">
-        <v>390</v>
-      </c>
-      <c r="K106" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/input/raw_data/data_extraction/data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/data_extraction_end.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95F409AA-4A8C-3A46-A6F4-1FF7850FDF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0555E909-BC76-3540-A3F3-2509C42D2C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19540" yWindow="8960" windowWidth="20560" windowHeight="12220" xr2:uid="{A46F0182-2702-C049-8D59-35AAB89CA329}"/>
+    <workbookView xWindow="20560" yWindow="13060" windowWidth="20560" windowHeight="12220" xr2:uid="{A46F0182-2702-C049-8D59-35AAB89CA329}"/>
   </bookViews>
   <sheets>
     <sheet name="data_extraction_start" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="472">
   <si>
     <t>Study_ID</t>
   </si>
@@ -108,9 +107,6 @@
     <t>Penetrating Cardiac Injury Following Sewing Needle Ingestion</t>
   </si>
   <si>
-    <t>Hard To Swallow: A Systematic Review Of Deliberate Foreign Body Ingestion</t>
-  </si>
-  <si>
     <t>Successful Endoscopic Removal Of A Lighter Swallowed 17 Months Before</t>
   </si>
   <si>
@@ -126,9 +122,6 @@
     <t>Radiologic Findings In Cases Of Attempted Suicide And Other Self-Injurious Behavior</t>
   </si>
   <si>
-    <t>Intentional Foreign Object Ingestions: Need For Endoscopy And¬†Surgery</t>
-  </si>
-  <si>
     <t>Single-Incision Laparoscopic Surgery For Ingested Foreign Body Removal</t>
   </si>
   <si>
@@ -150,9 +143,6 @@
     <t>Tendency To Ingest Foreign Bodies In Mentally Retarded Patients: A Case With Ileal Perforation Caused By The Ingestion Of A Teaspoon</t>
   </si>
   <si>
-    <t>Republication: Examination Of Financial Charges Associated With Intentional Foreign Body Ingestions By Prisoners: A Pattern Of Escalation</t>
-  </si>
-  <si>
     <t>Self-Harm In The Prison System</t>
   </si>
   <si>
@@ -162,9 +152,6 @@
     <t>Ingestion Of Computer Circuit Boards Causing Esophageal Impaction And Small Bowel Obstruction</t>
   </si>
   <si>
-    <t>Analysis Of Inedible Substance Ingestion At A Japanese Psychiatric Hospital</t>
-  </si>
-  <si>
     <t>Ingestion Of Foreign Bodies Among Prisoners: A Ten Years Retrospective Study At University Hospital Of Southern Italy</t>
   </si>
   <si>
@@ -174,9 +161,6 @@
     <t>Gastric Foreign Body: A Comb</t>
   </si>
   <si>
-    <t>Association Between Intentional Ingestion Of Foreign Objects And Psychiatric Disease Among Prisoners: A Retrospective Study</t>
-  </si>
-  <si>
     <t>Double Duodenal Perforation Following Foreign Body Ingestion</t>
   </si>
   <si>
@@ -186,9 +170,6 @@
     <t>Unusual Foreign Body Impacted In The Upper Oesophagus: Original Technique For Transoral Extraction</t>
   </si>
   <si>
-    <t>Prevalence Of Deliberate Self-Harm Among Chinese Patients With Heroin Dependence: A Meta-Analysis</t>
-  </si>
-  <si>
     <t>Ingested Razor Blades Within The Appendix: A Rare Case Report</t>
   </si>
   <si>
@@ -225,9 +206,6 @@
     <t>Pediatric Recurrent Intentional Foreign Body Ingestion: Case Series And Review Of The Literature</t>
   </si>
   <si>
-    <t>Trends And Clinical Features Of Intentional And Accidental Adult Foreign Body Ingestions In The United States, 2000 To 2017</t>
-  </si>
-  <si>
     <t>The Largest Esophageal Foreign Body In Adults: A Case Report</t>
   </si>
   <si>
@@ -237,9 +215,6 @@
     <t>Sharp Object In The Belly: A Case Of Pediatric Intentional Razor Blade Ingestion In The Emergency Department</t>
   </si>
   <si>
-    <t>Endoscopic Retrieval Of Magnetic Foreign Body Ingestions With A Nasal Bridle: Description Of A Novel Technique</t>
-  </si>
-  <si>
     <t>Repetitive Sharps Ingestion And Challenges With Retrieval And Prevention</t>
   </si>
   <si>
@@ -303,9 +278,6 @@
     <t>Gastrointestinal System Foreign Bodies.</t>
   </si>
   <si>
-    <t>Effect Of Delayed Endoscopy Protocol On Timing And Safety Of Endoscopy For Foreign Body Ingestion And Esophageal Food Impaction</t>
-  </si>
-  <si>
     <t>Management Of Foreign Body Ingestion In Adults: Time To Stop And Rethink Endoscopy</t>
   </si>
   <si>
@@ -324,9 +296,6 @@
     <t>Management Challenges Of Recurrent Foreign Body Ingestions In A Psychiatric Patient: A Case Report</t>
   </si>
   <si>
-    <t>Management Of Deliberate Foreign Body Ingestion Requiring Endoscopic Retrieval</t>
-  </si>
-  <si>
     <t>Intentional Ingestion Of A Foreign Body - Why We Need Psychiatrists</t>
   </si>
   <si>
@@ -612,9 +581,6 @@
     <t>Retrospective Case Series</t>
   </si>
   <si>
-    <t>10.4103/2455‑5568.188730</t>
-  </si>
-  <si>
     <t>Peixoto, A.</t>
   </si>
   <si>
@@ -837,18 +803,6 @@
     <t>Camp Humphreys, Korea</t>
   </si>
   <si>
-    <t>10.1016/j.gie.2019.10.023</t>
-  </si>
-  <si>
-    <t>Flynn, J.D.</t>
-  </si>
-  <si>
-    <t>Maine Medical Center</t>
-  </si>
-  <si>
-    <t>Portland, Maine, USA</t>
-  </si>
-  <si>
     <t>Hernandez, P.V.</t>
   </si>
   <si>
@@ -1243,13 +1197,265 @@
   </si>
   <si>
     <t>Huang, B.L.</t>
+  </si>
+  <si>
+    <t>Intentional Foreign Object Ingestions: Need For Endoscopy And Surgery</t>
+  </si>
+  <si>
+    <t>Columbus, Ohio, USA</t>
+  </si>
+  <si>
+    <t>Dalal, P.P</t>
+  </si>
+  <si>
+    <t>Single-center retrospective review of inmates presenting to The Ohio State University Wexner Medical Center with IIFO between January 2004 and January 2012.</t>
+  </si>
+  <si>
+    <t>Ohio State University Wexner Medical Center</t>
+  </si>
+  <si>
+    <t>Brezean, I.</t>
+  </si>
+  <si>
+    <t>Largest Prison Hospital in Romania</t>
+  </si>
+  <si>
+    <t>Dr.I.Cantacuzino Hospital</t>
+  </si>
+  <si>
+    <t>Bucharest, Romania</t>
+  </si>
+  <si>
+    <t>10.4323/rjlm.2016.194</t>
+  </si>
+  <si>
+    <t>Volpi, A.</t>
+  </si>
+  <si>
+    <t>University Hospital of Bari</t>
+  </si>
+  <si>
+    <t>Bari, Italy</t>
+  </si>
+  <si>
+    <t>Single centre study, all prisoner population. Mixed incarcerated and detained immigrants.</t>
+  </si>
+  <si>
+    <t>Single centre</t>
+  </si>
+  <si>
+    <t>Psychiatric Hospital</t>
+  </si>
+  <si>
+    <t>10.12809/eaap181732</t>
+  </si>
+  <si>
+    <t>Tanimoto, C.</t>
+  </si>
+  <si>
+    <t>Robertson, A.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed population of intentional and non-intentional ingestions who underwent endoscopy following ingestion. </t>
+  </si>
+  <si>
+    <t>Department of Gastroenterology, Royal Infirmary of Edinburgh</t>
+  </si>
+  <si>
+    <t>Edinburgh, UK</t>
+  </si>
+  <si>
+    <t>10.1111/sltb.12474</t>
+  </si>
+  <si>
+    <t>10.1080/14789949.2018.1530287</t>
+  </si>
+  <si>
+    <t>two inpatient forensic mental health services in the East of England</t>
+  </si>
+  <si>
+    <t>England, UK</t>
+  </si>
+  <si>
+    <t>Extended Case Report</t>
+  </si>
+  <si>
+    <t>Single psychiatric patient, multiple, repeated ingestions.</t>
+  </si>
+  <si>
+    <t>Oxford, UK</t>
+  </si>
+  <si>
+    <t>Ashman, A.</t>
+  </si>
+  <si>
+    <t>John Radcliffe Hospital</t>
+  </si>
+  <si>
+    <t>10.12968/hmed.2019.80.9.546</t>
+  </si>
+  <si>
+    <t>Aged under 18 with buckyball magnet ingestion from 9 large Chinese hospitals, among which 8 were pediatric hospitals</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Wang, K.</t>
+  </si>
+  <si>
+    <t>9 large Chinese hospitals, among which 8 were pediatric hospitals</t>
+  </si>
+  <si>
+    <t>10.1186/s12887-020-1990-9</t>
+  </si>
+  <si>
+    <t>Consecutive adult patients with suspected FBs referred to the Digestive Endoscopy Center of Beijing Friendship Hospital were included in the study from January 2011 to January 2019.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digestive Endoscopy Center of Beijing Friendship Hospital </t>
+  </si>
+  <si>
+    <t>Beijing, China</t>
+  </si>
+  <si>
+    <t>10.1186/s12876-020-01224-z</t>
+  </si>
+  <si>
+    <t>Zong, Y.</t>
+  </si>
+  <si>
+    <t>Prospective Case Series</t>
+  </si>
+  <si>
+    <t>Li, X.</t>
+  </si>
+  <si>
+    <t>Al-Shaaibi, R.</t>
+  </si>
+  <si>
+    <t>General Surgery, Royal Hospital</t>
+  </si>
+  <si>
+    <t>Muscat, Oman</t>
+  </si>
+  <si>
+    <t>10.5001/omj.2021.35</t>
+  </si>
+  <si>
+    <t>University Hospital Southampton</t>
+  </si>
+  <si>
+    <t>Southampton, UK</t>
+  </si>
+  <si>
+    <t>10.1136/ flgastro-2021-101847</t>
+  </si>
+  <si>
+    <t>Yadollahi, S.</t>
+  </si>
+  <si>
+    <t>Gunes, O.</t>
+  </si>
+  <si>
+    <t>Katip Çelebi University Atatürk Training and Research Hospital</t>
+  </si>
+  <si>
+    <t>10.14744/less.2023.45403</t>
+  </si>
+  <si>
+    <t>Tambakis, G.</t>
+  </si>
+  <si>
+    <t>Patients presenting with ingestion of foreign object ingestion at a tertiary hospital</t>
+  </si>
+  <si>
+    <t>Melbourne, Victoria, Australia</t>
+  </si>
+  <si>
+    <t>10.1055/a-2201-6928</t>
+  </si>
+  <si>
+    <t>Tertiary Hospital</t>
+  </si>
+  <si>
+    <t>Mezouari, F.A.</t>
+  </si>
+  <si>
+    <t>Prisoners attended emergency department for IIFO.</t>
+  </si>
+  <si>
+    <t>Ibn Rochd University Hospital Center</t>
+  </si>
+  <si>
+    <t>Casablanca, Morocco</t>
+  </si>
+  <si>
+    <t>10.5152/tjg.2023.101123</t>
+  </si>
+  <si>
+    <t>Kaazan, P.</t>
+  </si>
+  <si>
+    <t>Patients with record of endoscopy</t>
+  </si>
+  <si>
+    <t>3 Australian Hospitals</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>10.1177/10398562231189431</t>
+  </si>
+  <si>
+    <t>Calini, G.</t>
+  </si>
+  <si>
+    <t>Retrospective Review</t>
+  </si>
+  <si>
+    <t>patients who underwent upper gastrointestinal endoscopy for FBIs between 2007 and 2017</t>
+  </si>
+  <si>
+    <t>University Hospital ‘Santa Maria della Misericordia’</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>10.1097/MEG.0000000000002602</t>
+  </si>
+  <si>
+    <t>10.34172/mejdd.2023.322</t>
+  </si>
+  <si>
+    <t>Department of Gastroenterology, Indira Gandhi Medical College</t>
+  </si>
+  <si>
+    <t>Shimla, India</t>
+  </si>
+  <si>
+    <t>Chauhan, A.</t>
+  </si>
+  <si>
+    <t>Croydon University Hospital</t>
+  </si>
+  <si>
+    <t>Croydon, UK</t>
+  </si>
+  <si>
+    <t>Patients admitted by the surgical team at Croydon University Hospital between 2017 and 2023 with DFBI</t>
+  </si>
+  <si>
+    <t>Ishak, A.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1380,6 +1586,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1726,8 +1939,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2103,11 +2317,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6759A01A-4FB2-4345-9089-7E4839849A4B}">
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2134,25 +2348,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="M1" t="s">
         <v>7</v>
@@ -2163,7 +2377,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>1886</v>
@@ -2172,19 +2386,22 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2192,7 +2409,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>1993</v>
@@ -2201,13 +2418,16 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2215,7 +2435,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C4">
         <v>1996</v>
@@ -2224,22 +2444,25 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="G4" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H4" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="I4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -2247,7 +2470,7 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>1996</v>
@@ -2256,19 +2479,22 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
         <v>108</v>
       </c>
-      <c r="G5" t="s">
-        <v>118</v>
-      </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -2276,7 +2502,7 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <v>1997</v>
@@ -2285,19 +2511,22 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -2305,7 +2534,7 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>1998</v>
@@ -2314,19 +2543,22 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2334,7 +2566,7 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C8">
         <v>1998</v>
@@ -2343,16 +2575,19 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2360,7 +2595,7 @@
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C9">
         <v>2004</v>
@@ -2369,19 +2604,22 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -2389,7 +2627,7 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C10">
         <v>2006</v>
@@ -2398,19 +2636,22 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -2418,7 +2659,7 @@
         <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C11">
         <v>2007</v>
@@ -2427,16 +2668,19 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -2444,7 +2688,7 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C12">
         <v>2007</v>
@@ -2453,16 +2697,19 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -2470,7 +2717,7 @@
         <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C13">
         <v>2008</v>
@@ -2479,16 +2726,19 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -2496,7 +2746,7 @@
         <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C14">
         <v>2009</v>
@@ -2505,22 +2755,25 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F14" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="G14" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="H14" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="I14" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K14" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -2528,7 +2781,7 @@
         <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C15">
         <v>2010</v>
@@ -2537,10 +2790,13 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -2548,7 +2804,7 @@
         <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="C16">
         <v>2010</v>
@@ -2557,30 +2813,33 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G16" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="H16" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="I16" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K16" t="s">
+        <v>104</v>
       </c>
       <c r="M16" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C17">
         <v>2011</v>
@@ -2589,35 +2848,50 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>149</v>
+        <v>168</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
       </c>
       <c r="C18">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>105</v>
+      </c>
+      <c r="G18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C19">
         <v>2012</v>
@@ -2626,76 +2900,85 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C20">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C21">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H21" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="J21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C22">
         <v>2012</v>
@@ -2704,799 +2987,1045 @@
         <v>28</v>
       </c>
       <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C23">
+        <v>2013</v>
+      </c>
+      <c r="D23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" t="s">
+        <v>391</v>
+      </c>
+      <c r="G23" t="s">
+        <v>392</v>
+      </c>
+      <c r="H23" t="s">
+        <v>389</v>
+      </c>
+      <c r="J23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>195</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24">
+        <v>2014</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>214</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25">
+        <v>2015</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>217</v>
+      </c>
+      <c r="B26" t="s">
         <v>164</v>
-      </c>
-      <c r="G22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" t="s">
-        <v>163</v>
-      </c>
-      <c r="J22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>182</v>
-      </c>
-      <c r="B23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23">
-        <v>2012</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" t="s">
-        <v>139</v>
-      </c>
-      <c r="J23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>192</v>
-      </c>
-      <c r="C24">
-        <v>2013</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>164</v>
-      </c>
-      <c r="J24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>195</v>
-      </c>
-      <c r="B25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25">
-        <v>2014</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" t="s">
-        <v>168</v>
-      </c>
-      <c r="J25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>214</v>
-      </c>
-      <c r="B26" t="s">
-        <v>169</v>
       </c>
       <c r="C26">
         <v>2015</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H26" t="s">
-        <v>171</v>
+        <v>163</v>
+      </c>
+      <c r="I26" t="s">
+        <v>165</v>
       </c>
       <c r="J26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C27">
         <v>2015</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H27" t="s">
-        <v>173</v>
-      </c>
-      <c r="I27" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C28">
         <v>2015</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H28" t="s">
-        <v>176</v>
+        <v>170</v>
+      </c>
+      <c r="I28" t="s">
+        <v>169</v>
       </c>
       <c r="J28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C29">
         <v>2015</v>
       </c>
       <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>238</v>
+      </c>
+      <c r="B30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30">
+        <v>2016</v>
+      </c>
+      <c r="D30" t="s">
         <v>35</v>
       </c>
-      <c r="E29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" t="s">
-        <v>182</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" t="s">
         <v>180</v>
       </c>
-      <c r="I29" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>231</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30">
-        <v>2015</v>
-      </c>
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" t="s">
-        <v>183</v>
-      </c>
-      <c r="H30" t="s">
-        <v>184</v>
-      </c>
       <c r="I30" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>393</v>
       </c>
       <c r="C31">
         <v>2016</v>
       </c>
       <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" t="s">
+        <v>394</v>
+      </c>
+      <c r="G31" t="s">
+        <v>395</v>
+      </c>
+      <c r="H31" t="s">
+        <v>396</v>
+      </c>
+      <c r="I31" t="s">
+        <v>397</v>
+      </c>
+      <c r="J31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>260</v>
+      </c>
+      <c r="B32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32">
+        <v>2017</v>
+      </c>
+      <c r="D32" t="s">
         <v>37</v>
       </c>
-      <c r="E31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" t="s">
-        <v>189</v>
-      </c>
-      <c r="H31" t="s">
-        <v>190</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" t="s">
+        <v>184</v>
+      </c>
+      <c r="I32" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" t="s">
+        <v>103</v>
+      </c>
+      <c r="K32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>261</v>
+      </c>
+      <c r="B33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33">
+        <v>2017</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" t="s">
         <v>188</v>
       </c>
-      <c r="J31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>244</v>
-      </c>
-      <c r="C32">
-        <v>2016</v>
-      </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" t="s">
-        <v>191</v>
-      </c>
-      <c r="I32" t="s">
-        <v>192</v>
-      </c>
-      <c r="J32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>256</v>
-      </c>
-      <c r="C33">
-        <v>2016</v>
-      </c>
-      <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" t="s">
-        <v>164</v>
+      <c r="H33" t="s">
+        <v>187</v>
       </c>
       <c r="J33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>398</v>
       </c>
       <c r="C34">
         <v>2017</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>207</v>
+      </c>
+      <c r="F34" t="s">
+        <v>401</v>
       </c>
       <c r="G34" t="s">
-        <v>194</v>
+        <v>399</v>
       </c>
       <c r="H34" t="s">
-        <v>195</v>
-      </c>
-      <c r="I34" t="s">
-        <v>196</v>
+        <v>400</v>
       </c>
       <c r="J34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C35">
         <v>2017</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G35" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H35" t="s">
-        <v>198</v>
+        <v>191</v>
+      </c>
+      <c r="I35" t="s">
+        <v>190</v>
       </c>
       <c r="J35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>263</v>
+        <v>274</v>
+      </c>
+      <c r="B36" t="s">
+        <v>195</v>
       </c>
       <c r="C36">
         <v>2017</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>105</v>
+      </c>
+      <c r="G36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" t="s">
+        <v>196</v>
       </c>
       <c r="J36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>266</v>
+        <v>278</v>
+      </c>
+      <c r="B37" t="s">
+        <v>200</v>
       </c>
       <c r="C37">
         <v>2017</v>
       </c>
       <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37" t="s">
+        <v>199</v>
+      </c>
+      <c r="J37" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>288</v>
+      </c>
+      <c r="B38" t="s">
+        <v>405</v>
+      </c>
+      <c r="C38">
+        <v>2018</v>
+      </c>
+      <c r="D38" t="s">
         <v>43</v>
       </c>
-      <c r="E37" t="s">
-        <v>164</v>
-      </c>
-      <c r="J37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>273</v>
-      </c>
-      <c r="B38" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38">
-        <v>2017</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" t="s">
+        <v>402</v>
+      </c>
+      <c r="G38" t="s">
+        <v>403</v>
+      </c>
+      <c r="H38" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" t="s">
+        <v>404</v>
+      </c>
+      <c r="J38" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>292</v>
+      </c>
+      <c r="B39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39">
+        <v>2018</v>
+      </c>
+      <c r="D39" t="s">
         <v>44</v>
       </c>
-      <c r="E38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" t="s">
-        <v>203</v>
-      </c>
-      <c r="H38" t="s">
-        <v>202</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J39" t="s">
+        <v>103</v>
+      </c>
+      <c r="K39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>300</v>
+      </c>
+      <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40">
+        <v>2018</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H40" t="s">
+        <v>215</v>
+      </c>
+      <c r="I40" t="s">
+        <v>216</v>
+      </c>
+      <c r="J40" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>307</v>
+      </c>
+      <c r="B41" t="s">
+        <v>406</v>
+      </c>
+      <c r="C41">
+        <v>2019</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" t="s">
+        <v>407</v>
+      </c>
+      <c r="G41" t="s">
+        <v>408</v>
+      </c>
+      <c r="H41" t="s">
+        <v>409</v>
+      </c>
+      <c r="I41" t="s">
+        <v>410</v>
+      </c>
+      <c r="J41" t="s">
+        <v>103</v>
+      </c>
+      <c r="K41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>311</v>
+      </c>
+      <c r="B42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42">
+        <v>2019</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" t="s">
+        <v>212</v>
+      </c>
+      <c r="H42" t="s">
+        <v>213</v>
+      </c>
+      <c r="J42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>312</v>
+      </c>
+      <c r="B43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43">
+        <v>2019</v>
+      </c>
+      <c r="D43" t="s">
         <v>201</v>
       </c>
-      <c r="J38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>274</v>
-      </c>
-      <c r="B39" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39">
-        <v>2017</v>
-      </c>
-      <c r="D39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" t="s">
-        <v>204</v>
-      </c>
-      <c r="H39" t="s">
-        <v>205</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="E43" t="s">
         <v>207</v>
       </c>
-      <c r="J39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>277</v>
-      </c>
-      <c r="C40">
-        <v>2017</v>
-      </c>
-      <c r="D40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" t="s">
-        <v>164</v>
-      </c>
-      <c r="J40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>278</v>
-      </c>
-      <c r="B41" t="s">
-        <v>211</v>
-      </c>
-      <c r="C41">
-        <v>2017</v>
-      </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" t="s">
-        <v>208</v>
-      </c>
-      <c r="H41" t="s">
-        <v>209</v>
-      </c>
-      <c r="I41" t="s">
-        <v>210</v>
-      </c>
-      <c r="J41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>288</v>
-      </c>
-      <c r="C42">
-        <v>2018</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="F43" t="s">
+        <v>412</v>
+      </c>
+      <c r="H43" t="s">
+        <v>413</v>
+      </c>
+      <c r="I43" t="s">
+        <v>411</v>
+      </c>
+      <c r="J43" t="s">
+        <v>103</v>
+      </c>
+      <c r="K43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>314</v>
+      </c>
+      <c r="B44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44">
+        <v>2019</v>
+      </c>
+      <c r="D44" t="s">
         <v>48</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" t="s">
         <v>218</v>
       </c>
-      <c r="J42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>292</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="H44" t="s">
         <v>219</v>
       </c>
-      <c r="C43">
-        <v>2018</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="I44" t="s">
+        <v>220</v>
+      </c>
+      <c r="J44" t="s">
+        <v>103</v>
+      </c>
+      <c r="K44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>319</v>
+      </c>
+      <c r="B45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45">
+        <v>2019</v>
+      </c>
+      <c r="D45" t="s">
         <v>49</v>
       </c>
-      <c r="E43" t="s">
-        <v>115</v>
-      </c>
-      <c r="J43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>293</v>
-      </c>
-      <c r="C44">
-        <v>2018</v>
-      </c>
-      <c r="D44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>300</v>
-      </c>
-      <c r="B45" t="s">
-        <v>220</v>
-      </c>
-      <c r="C45">
-        <v>2018</v>
-      </c>
-      <c r="D45" t="s">
-        <v>51</v>
-      </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H45" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I45" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>307</v>
+        <v>321</v>
+      </c>
+      <c r="B46" t="s">
+        <v>417</v>
       </c>
       <c r="C46">
         <v>2019</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>218</v>
+        <v>414</v>
+      </c>
+      <c r="F46" t="s">
+        <v>415</v>
+      </c>
+      <c r="G46" t="s">
+        <v>418</v>
+      </c>
+      <c r="H46" t="s">
+        <v>416</v>
+      </c>
+      <c r="I46" t="s">
+        <v>419</v>
       </c>
       <c r="J46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C47">
         <v>2019</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G47" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H47" t="s">
-        <v>224</v>
+        <v>228</v>
+      </c>
+      <c r="I47" t="s">
+        <v>226</v>
       </c>
       <c r="J47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C48">
         <v>2019</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
-      </c>
-      <c r="E48" t="s">
-        <v>218</v>
+        <v>52</v>
+      </c>
+      <c r="G48" t="s">
+        <v>229</v>
+      </c>
+      <c r="H48" t="s">
+        <v>230</v>
+      </c>
+      <c r="I48" t="s">
+        <v>231</v>
       </c>
       <c r="J48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C49">
         <v>2019</v>
       </c>
       <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" t="s">
+        <v>234</v>
+      </c>
+      <c r="H49" t="s">
+        <v>235</v>
+      </c>
+      <c r="I49" t="s">
+        <v>236</v>
+      </c>
+      <c r="J49" t="s">
+        <v>103</v>
+      </c>
+      <c r="K49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>333</v>
+      </c>
+      <c r="B50" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50">
+        <v>2020</v>
+      </c>
+      <c r="D50" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" t="s">
+        <v>238</v>
+      </c>
+      <c r="H50" t="s">
+        <v>239</v>
+      </c>
+      <c r="J50" t="s">
+        <v>103</v>
+      </c>
+      <c r="K50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>336</v>
+      </c>
+      <c r="B51" t="s">
+        <v>422</v>
+      </c>
+      <c r="C51">
+        <v>2020</v>
+      </c>
+      <c r="D51" t="s">
         <v>54</v>
       </c>
-      <c r="E49" t="s">
-        <v>115</v>
-      </c>
-      <c r="G49" t="s">
-        <v>229</v>
-      </c>
-      <c r="H49" t="s">
-        <v>230</v>
-      </c>
-      <c r="I49" t="s">
-        <v>231</v>
-      </c>
-      <c r="J49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>319</v>
-      </c>
-      <c r="B50" t="s">
-        <v>232</v>
-      </c>
-      <c r="C50">
-        <v>2019</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E51" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" t="s">
+        <v>420</v>
+      </c>
+      <c r="G51" t="s">
+        <v>423</v>
+      </c>
+      <c r="H51" t="s">
+        <v>421</v>
+      </c>
+      <c r="I51" t="s">
+        <v>424</v>
+      </c>
+      <c r="J51" t="s">
+        <v>103</v>
+      </c>
+      <c r="K51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>342</v>
+      </c>
+      <c r="B52" t="s">
+        <v>429</v>
+      </c>
+      <c r="C52">
+        <v>2020</v>
+      </c>
+      <c r="D52" t="s">
         <v>55</v>
       </c>
-      <c r="E50" t="s">
-        <v>115</v>
-      </c>
-      <c r="G50" t="s">
-        <v>233</v>
-      </c>
-      <c r="H50" t="s">
-        <v>234</v>
-      </c>
-      <c r="I50" t="s">
-        <v>235</v>
-      </c>
-      <c r="J50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>321</v>
-      </c>
-      <c r="C51">
-        <v>2019</v>
-      </c>
-      <c r="D51" t="s">
-        <v>56</v>
-      </c>
-      <c r="J51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>322</v>
-      </c>
-      <c r="B52" t="s">
-        <v>236</v>
-      </c>
-      <c r="C52">
-        <v>2019</v>
-      </c>
-      <c r="D52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" t="s">
-        <v>115</v>
+      <c r="F52" t="s">
+        <v>425</v>
       </c>
       <c r="G52" t="s">
-        <v>238</v>
+        <v>426</v>
       </c>
       <c r="H52" t="s">
-        <v>239</v>
+        <v>427</v>
       </c>
       <c r="I52" t="s">
-        <v>237</v>
+        <v>428</v>
       </c>
       <c r="J52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="B53" t="s">
         <v>243</v>
       </c>
       <c r="C53">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="E53" t="s">
+        <v>430</v>
       </c>
       <c r="G53" t="s">
+        <v>241</v>
+      </c>
+      <c r="H53" t="s">
         <v>240</v>
-      </c>
-      <c r="H53" t="s">
-        <v>241</v>
       </c>
       <c r="I53" t="s">
         <v>242</v>
       </c>
       <c r="J53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="K53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54">
+        <v>2020</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" t="s">
         <v>244</v>
       </c>
-      <c r="C54">
-        <v>2019</v>
-      </c>
-      <c r="D54" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>245</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>246</v>
       </c>
-      <c r="I54" t="s">
-        <v>247</v>
-      </c>
       <c r="J54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="B55" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C55">
         <v>2020</v>
       </c>
       <c r="D55" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G55" t="s">
         <v>249</v>
@@ -3504,1229 +4033,1319 @@
       <c r="H55" t="s">
         <v>250</v>
       </c>
+      <c r="I55" t="s">
+        <v>248</v>
+      </c>
       <c r="J55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>336</v>
+        <v>353</v>
+      </c>
+      <c r="B56" t="s">
+        <v>252</v>
       </c>
       <c r="C56">
         <v>2020</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="E56" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" t="s">
+        <v>254</v>
+      </c>
+      <c r="H56" t="s">
+        <v>255</v>
+      </c>
+      <c r="I56" t="s">
+        <v>253</v>
       </c>
       <c r="J56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="C57">
         <v>2020</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="K57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C58">
         <v>2020</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G58" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H58" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="I58" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>346</v>
+        <v>360</v>
+      </c>
+      <c r="B59" t="s">
+        <v>260</v>
       </c>
       <c r="C59">
         <v>2020</v>
       </c>
       <c r="D59" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" t="s">
+        <v>263</v>
+      </c>
+      <c r="H59" t="s">
+        <v>262</v>
+      </c>
+      <c r="I59" t="s">
+        <v>261</v>
+      </c>
+      <c r="J59" t="s">
+        <v>103</v>
+      </c>
+      <c r="K59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>369</v>
+      </c>
+      <c r="B60" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60">
+        <v>2021</v>
+      </c>
+      <c r="D60" t="s">
         <v>63</v>
       </c>
-      <c r="J59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>348</v>
-      </c>
-      <c r="B60" t="s">
-        <v>258</v>
-      </c>
-      <c r="C60">
-        <v>2020</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" t="s">
+        <v>264</v>
+      </c>
+      <c r="H60" t="s">
+        <v>265</v>
+      </c>
+      <c r="I60" t="s">
+        <v>266</v>
+      </c>
+      <c r="J60" t="s">
+        <v>103</v>
+      </c>
+      <c r="K60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>370</v>
+      </c>
+      <c r="B61" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61">
+        <v>2021</v>
+      </c>
+      <c r="D61" t="s">
         <v>64</v>
       </c>
-      <c r="E60" t="s">
-        <v>115</v>
-      </c>
-      <c r="G60" t="s">
-        <v>255</v>
-      </c>
-      <c r="H60" t="s">
-        <v>256</v>
-      </c>
-      <c r="I60" t="s">
-        <v>257</v>
-      </c>
-      <c r="J60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>349</v>
-      </c>
-      <c r="B61" t="s">
-        <v>262</v>
-      </c>
-      <c r="C61">
-        <v>2020</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61" t="s">
+        <v>269</v>
+      </c>
+      <c r="H61" t="s">
+        <v>270</v>
+      </c>
+      <c r="I61" t="s">
+        <v>268</v>
+      </c>
+      <c r="J61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>373</v>
+      </c>
+      <c r="B62" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62">
+        <v>2021</v>
+      </c>
+      <c r="D62" t="s">
         <v>65</v>
       </c>
-      <c r="E61" t="s">
-        <v>115</v>
-      </c>
-      <c r="G61" t="s">
-        <v>260</v>
-      </c>
-      <c r="H61" t="s">
-        <v>261</v>
-      </c>
-      <c r="I61" t="s">
-        <v>259</v>
-      </c>
-      <c r="J61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>353</v>
-      </c>
-      <c r="B62" t="s">
-        <v>263</v>
-      </c>
-      <c r="C62">
-        <v>2020</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
+        <v>105</v>
+      </c>
+      <c r="G62" t="s">
+        <v>272</v>
+      </c>
+      <c r="H62" t="s">
+        <v>273</v>
+      </c>
+      <c r="I62" t="s">
+        <v>274</v>
+      </c>
+      <c r="J62" t="s">
+        <v>103</v>
+      </c>
+      <c r="K62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>375</v>
+      </c>
+      <c r="C63">
+        <v>2021</v>
+      </c>
+      <c r="D63" t="s">
         <v>66</v>
       </c>
-      <c r="E62" t="s">
-        <v>115</v>
-      </c>
-      <c r="G62" t="s">
-        <v>265</v>
-      </c>
-      <c r="H62" t="s">
-        <v>266</v>
-      </c>
-      <c r="I62" t="s">
-        <v>264</v>
-      </c>
-      <c r="J62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>354</v>
-      </c>
-      <c r="B63" t="s">
-        <v>268</v>
-      </c>
-      <c r="C63">
-        <v>2020</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="J63" t="s">
+        <v>104</v>
+      </c>
+      <c r="K63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>377</v>
+      </c>
+      <c r="B64" t="s">
+        <v>431</v>
+      </c>
+      <c r="C64">
+        <v>2021</v>
+      </c>
+      <c r="D64" t="s">
         <v>67</v>
       </c>
-      <c r="E63" t="s">
-        <v>108</v>
-      </c>
-      <c r="G63" t="s">
-        <v>269</v>
-      </c>
-      <c r="H63" t="s">
-        <v>270</v>
-      </c>
-      <c r="I63" t="s">
-        <v>267</v>
-      </c>
-      <c r="J63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>356</v>
-      </c>
-      <c r="C64">
-        <v>2020</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="G64" t="s">
+        <v>276</v>
+      </c>
+      <c r="H64" t="s">
+        <v>277</v>
+      </c>
+      <c r="I64" t="s">
+        <v>278</v>
+      </c>
+      <c r="J64" t="s">
+        <v>103</v>
+      </c>
+      <c r="K64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>380</v>
+      </c>
+      <c r="B65" t="s">
+        <v>432</v>
+      </c>
+      <c r="C65">
+        <v>2021</v>
+      </c>
+      <c r="D65" t="s">
         <v>68</v>
       </c>
-      <c r="J64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>359</v>
-      </c>
-      <c r="B65" t="s">
-        <v>271</v>
-      </c>
-      <c r="C65">
-        <v>2020</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>105</v>
+      </c>
+      <c r="G65" t="s">
+        <v>433</v>
+      </c>
+      <c r="H65" t="s">
+        <v>434</v>
+      </c>
+      <c r="I65" t="s">
+        <v>435</v>
+      </c>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+      <c r="K65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>382</v>
+      </c>
+      <c r="B66" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66">
+        <v>2021</v>
+      </c>
+      <c r="D66" t="s">
         <v>69</v>
       </c>
-      <c r="E65" t="s">
-        <v>115</v>
-      </c>
-      <c r="G65" t="s">
-        <v>272</v>
-      </c>
-      <c r="H65" t="s">
-        <v>273</v>
-      </c>
-      <c r="I65" t="s">
-        <v>274</v>
-      </c>
-      <c r="J65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>360</v>
-      </c>
-      <c r="B66" t="s">
-        <v>275</v>
-      </c>
-      <c r="C66">
-        <v>2020</v>
-      </c>
-      <c r="D66" t="s">
-        <v>70</v>
+      <c r="E66" t="s">
+        <v>105</v>
       </c>
       <c r="G66" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H66" t="s">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="I66" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="B67" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C67">
         <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G67" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H67" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I67" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="B68" t="s">
         <v>286</v>
       </c>
       <c r="C68">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" t="s">
+        <v>105</v>
+      </c>
+      <c r="G68" t="s">
+        <v>287</v>
+      </c>
+      <c r="H68" t="s">
+        <v>288</v>
+      </c>
+      <c r="I68" t="s">
+        <v>289</v>
+      </c>
+      <c r="J68" t="s">
+        <v>103</v>
+      </c>
+      <c r="K68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>401</v>
+      </c>
+      <c r="B69" t="s">
+        <v>439</v>
+      </c>
+      <c r="C69">
+        <v>2022</v>
+      </c>
+      <c r="D69" t="s">
         <v>72</v>
       </c>
-      <c r="E68" t="s">
-        <v>115</v>
-      </c>
-      <c r="G68" t="s">
-        <v>284</v>
-      </c>
-      <c r="H68" t="s">
-        <v>285</v>
-      </c>
-      <c r="I68" t="s">
-        <v>283</v>
-      </c>
-      <c r="J68" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>373</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="E69" t="s">
+        <v>207</v>
+      </c>
+      <c r="G69" t="s">
+        <v>436</v>
+      </c>
+      <c r="H69" t="s">
+        <v>437</v>
+      </c>
+      <c r="I69" t="s">
+        <v>438</v>
+      </c>
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+      <c r="K69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>402</v>
+      </c>
+      <c r="B70" t="s">
         <v>290</v>
       </c>
-      <c r="C69">
-        <v>2021</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C70">
+        <v>2022</v>
+      </c>
+      <c r="D70" t="s">
         <v>73</v>
       </c>
-      <c r="E69" t="s">
-        <v>115</v>
-      </c>
-      <c r="G69" t="s">
-        <v>287</v>
-      </c>
-      <c r="H69" t="s">
-        <v>288</v>
-      </c>
-      <c r="I69" t="s">
-        <v>289</v>
-      </c>
-      <c r="J69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>375</v>
-      </c>
-      <c r="C70">
-        <v>2021</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" t="s">
+        <v>292</v>
+      </c>
+      <c r="H70" t="s">
+        <v>293</v>
+      </c>
+      <c r="I70" t="s">
+        <v>291</v>
+      </c>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+      <c r="K70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>405</v>
+      </c>
+      <c r="B71" t="s">
+        <v>294</v>
+      </c>
+      <c r="C71">
+        <v>2022</v>
+      </c>
+      <c r="D71" t="s">
         <v>74</v>
       </c>
-      <c r="J70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>377</v>
-      </c>
-      <c r="C71">
-        <v>2021</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>105</v>
+      </c>
+      <c r="G71" t="s">
+        <v>296</v>
+      </c>
+      <c r="H71" t="s">
+        <v>297</v>
+      </c>
+      <c r="I71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+      <c r="K71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>406</v>
+      </c>
+      <c r="B72" t="s">
+        <v>298</v>
+      </c>
+      <c r="C72">
+        <v>2022</v>
+      </c>
+      <c r="D72" t="s">
         <v>75</v>
       </c>
-      <c r="G71" t="s">
-        <v>291</v>
-      </c>
-      <c r="H71" t="s">
-        <v>292</v>
-      </c>
-      <c r="I71" t="s">
-        <v>293</v>
-      </c>
-      <c r="J71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>380</v>
-      </c>
-      <c r="C72">
-        <v>2021</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>105</v>
+      </c>
+      <c r="G72" t="s">
+        <v>301</v>
+      </c>
+      <c r="H72" t="s">
+        <v>300</v>
+      </c>
+      <c r="I72" t="s">
+        <v>299</v>
+      </c>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+      <c r="K72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>409</v>
+      </c>
+      <c r="B73" t="s">
+        <v>302</v>
+      </c>
+      <c r="C73">
+        <v>2022</v>
+      </c>
+      <c r="D73" t="s">
         <v>76</v>
       </c>
-      <c r="J72" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>382</v>
-      </c>
-      <c r="B73" t="s">
-        <v>296</v>
-      </c>
-      <c r="C73">
-        <v>2021</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G73" t="s">
+        <v>303</v>
+      </c>
+      <c r="H73" t="s">
+        <v>304</v>
+      </c>
+      <c r="I73" t="s">
+        <v>305</v>
+      </c>
+      <c r="J73" t="s">
+        <v>103</v>
+      </c>
+      <c r="K73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>414</v>
+      </c>
+      <c r="B74" t="s">
+        <v>251</v>
+      </c>
+      <c r="C74">
+        <v>2022</v>
+      </c>
+      <c r="D74" t="s">
         <v>77</v>
       </c>
-      <c r="G73" t="s">
-        <v>294</v>
-      </c>
-      <c r="H73" t="s">
-        <v>142</v>
-      </c>
-      <c r="I73" t="s">
-        <v>295</v>
-      </c>
-      <c r="J73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>386</v>
-      </c>
-      <c r="B74" t="s">
-        <v>300</v>
-      </c>
-      <c r="C74">
-        <v>2021</v>
-      </c>
-      <c r="D74" t="s">
-        <v>78</v>
-      </c>
       <c r="E74" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G74" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="H74" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="I74" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="J74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C75">
         <v>2022</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G75" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H75" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="I75" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="J75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>401</v>
+        <v>421</v>
+      </c>
+      <c r="B76" t="s">
+        <v>313</v>
       </c>
       <c r="C76">
         <v>2022</v>
       </c>
       <c r="D76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E76" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" t="s">
+        <v>314</v>
+      </c>
+      <c r="H76" t="s">
+        <v>315</v>
+      </c>
+      <c r="I76" t="s">
+        <v>316</v>
+      </c>
+      <c r="J76" t="s">
+        <v>103</v>
+      </c>
+      <c r="K76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>428</v>
+      </c>
+      <c r="B77" t="s">
+        <v>440</v>
+      </c>
+      <c r="C77">
+        <v>2023</v>
+      </c>
+      <c r="D77" t="s">
         <v>80</v>
       </c>
-      <c r="J76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>402</v>
-      </c>
-      <c r="B77" t="s">
-        <v>305</v>
-      </c>
-      <c r="C77">
-        <v>2022</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="G77" t="s">
+        <v>441</v>
+      </c>
+      <c r="H77" t="s">
+        <v>170</v>
+      </c>
+      <c r="I77" t="s">
+        <v>442</v>
+      </c>
+      <c r="J77" t="s">
+        <v>104</v>
+      </c>
+      <c r="K77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>431</v>
+      </c>
+      <c r="B78" t="s">
+        <v>320</v>
+      </c>
+      <c r="C78">
+        <v>2023</v>
+      </c>
+      <c r="D78" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78" t="s">
+        <v>105</v>
+      </c>
+      <c r="G78" t="s">
+        <v>318</v>
+      </c>
+      <c r="H78" t="s">
+        <v>319</v>
+      </c>
+      <c r="I78" t="s">
+        <v>317</v>
+      </c>
+      <c r="J78" t="s">
+        <v>103</v>
+      </c>
+      <c r="K78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>432</v>
+      </c>
+      <c r="B79" t="s">
+        <v>443</v>
+      </c>
+      <c r="C79">
+        <v>2023</v>
+      </c>
+      <c r="D79" t="s">
         <v>81</v>
       </c>
-      <c r="E77" t="s">
-        <v>115</v>
-      </c>
-      <c r="G77" t="s">
-        <v>307</v>
-      </c>
-      <c r="H77" t="s">
-        <v>308</v>
-      </c>
-      <c r="I77" t="s">
-        <v>306</v>
-      </c>
-      <c r="J77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>405</v>
-      </c>
-      <c r="B78" t="s">
-        <v>309</v>
-      </c>
-      <c r="C78">
-        <v>2022</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E79" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79" t="s">
+        <v>444</v>
+      </c>
+      <c r="G79" t="s">
+        <v>447</v>
+      </c>
+      <c r="H79" t="s">
+        <v>445</v>
+      </c>
+      <c r="I79" t="s">
+        <v>446</v>
+      </c>
+      <c r="J79" t="s">
+        <v>103</v>
+      </c>
+      <c r="K79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>439</v>
+      </c>
+      <c r="B80" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80">
+        <v>2023</v>
+      </c>
+      <c r="D80" t="s">
         <v>82</v>
       </c>
-      <c r="E78" t="s">
-        <v>115</v>
-      </c>
-      <c r="G78" t="s">
-        <v>311</v>
-      </c>
-      <c r="H78" t="s">
-        <v>312</v>
-      </c>
-      <c r="I78" t="s">
-        <v>310</v>
-      </c>
-      <c r="J78" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>406</v>
-      </c>
-      <c r="B79" t="s">
-        <v>313</v>
-      </c>
-      <c r="C79">
-        <v>2022</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E80" t="s">
+        <v>105</v>
+      </c>
+      <c r="G80" t="s">
+        <v>322</v>
+      </c>
+      <c r="H80" t="s">
+        <v>323</v>
+      </c>
+      <c r="I80" t="s">
+        <v>324</v>
+      </c>
+      <c r="J80" t="s">
+        <v>103</v>
+      </c>
+      <c r="K80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>441</v>
+      </c>
+      <c r="B81" t="s">
+        <v>448</v>
+      </c>
+      <c r="C81">
+        <v>2023</v>
+      </c>
+      <c r="D81" t="s">
         <v>83</v>
       </c>
-      <c r="E79" t="s">
-        <v>115</v>
-      </c>
-      <c r="G79" t="s">
-        <v>316</v>
-      </c>
-      <c r="H79" t="s">
-        <v>315</v>
-      </c>
-      <c r="I79" t="s">
-        <v>314</v>
-      </c>
-      <c r="J79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>409</v>
-      </c>
-      <c r="B80" t="s">
-        <v>317</v>
-      </c>
-      <c r="C80">
-        <v>2022</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E81" t="s">
+        <v>181</v>
+      </c>
+      <c r="F81" t="s">
+        <v>449</v>
+      </c>
+      <c r="G81" t="s">
+        <v>450</v>
+      </c>
+      <c r="H81" t="s">
+        <v>451</v>
+      </c>
+      <c r="I81" t="s">
+        <v>452</v>
+      </c>
+      <c r="J81" t="s">
+        <v>103</v>
+      </c>
+      <c r="K81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>442</v>
+      </c>
+      <c r="B82" t="s">
+        <v>453</v>
+      </c>
+      <c r="C82">
+        <v>2023</v>
+      </c>
+      <c r="D82" t="s">
         <v>84</v>
       </c>
-      <c r="E80" t="s">
-        <v>115</v>
-      </c>
-      <c r="G80" t="s">
-        <v>318</v>
-      </c>
-      <c r="H80" t="s">
-        <v>319</v>
-      </c>
-      <c r="I80" t="s">
-        <v>320</v>
-      </c>
-      <c r="J80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>414</v>
-      </c>
-      <c r="B81" t="s">
-        <v>262</v>
-      </c>
-      <c r="C81">
-        <v>2022</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="F82" t="s">
+        <v>454</v>
+      </c>
+      <c r="G82" t="s">
+        <v>455</v>
+      </c>
+      <c r="H82" t="s">
+        <v>456</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J82" t="s">
+        <v>103</v>
+      </c>
+      <c r="K82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>443</v>
+      </c>
+      <c r="B83" t="s">
+        <v>325</v>
+      </c>
+      <c r="C83">
+        <v>2023</v>
+      </c>
+      <c r="D83" t="s">
         <v>85</v>
       </c>
-      <c r="E81" t="s">
-        <v>115</v>
-      </c>
-      <c r="G81" t="s">
-        <v>322</v>
-      </c>
-      <c r="H81" t="s">
-        <v>323</v>
-      </c>
-      <c r="I81" t="s">
-        <v>321</v>
-      </c>
-      <c r="J81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>416</v>
-      </c>
-      <c r="B82" t="s">
-        <v>324</v>
-      </c>
-      <c r="C82">
-        <v>2022</v>
-      </c>
-      <c r="D82" t="s">
-        <v>86</v>
-      </c>
-      <c r="E82" t="s">
-        <v>115</v>
-      </c>
-      <c r="G82" t="s">
-        <v>325</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="E83" t="s">
+        <v>105</v>
+      </c>
+      <c r="G83" t="s">
         <v>326</v>
       </c>
-      <c r="I82" t="s">
+      <c r="H83" t="s">
         <v>327</v>
       </c>
-      <c r="J82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>421</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="I83" t="s">
         <v>328</v>
       </c>
-      <c r="C83">
-        <v>2022</v>
-      </c>
-      <c r="D83" t="s">
-        <v>87</v>
-      </c>
-      <c r="E83" t="s">
-        <v>108</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="J83" t="s">
+        <v>103</v>
+      </c>
+      <c r="K83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>444</v>
+      </c>
+      <c r="B84" t="s">
         <v>329</v>
-      </c>
-      <c r="H83" t="s">
-        <v>330</v>
-      </c>
-      <c r="I83" t="s">
-        <v>331</v>
-      </c>
-      <c r="J83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>428</v>
       </c>
       <c r="C84">
         <v>2023</v>
       </c>
       <c r="D84" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="E84" t="s">
+        <v>105</v>
+      </c>
+      <c r="G84" t="s">
+        <v>330</v>
+      </c>
+      <c r="H84" t="s">
+        <v>331</v>
+      </c>
+      <c r="I84" t="s">
+        <v>332</v>
       </c>
       <c r="J84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>429</v>
+        <v>450</v>
+      </c>
+      <c r="B85" t="s">
+        <v>458</v>
       </c>
       <c r="C85">
         <v>2023</v>
       </c>
       <c r="D85" t="s">
-        <v>89</v>
+        <v>204</v>
+      </c>
+      <c r="E85" t="s">
+        <v>459</v>
+      </c>
+      <c r="F85" t="s">
+        <v>460</v>
+      </c>
+      <c r="G85" t="s">
+        <v>461</v>
+      </c>
+      <c r="H85" t="s">
+        <v>462</v>
+      </c>
+      <c r="I85" t="s">
+        <v>463</v>
       </c>
       <c r="J85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="B86" t="s">
-        <v>335</v>
+        <v>467</v>
       </c>
       <c r="C86">
         <v>2023</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G86" t="s">
-        <v>333</v>
+        <v>465</v>
       </c>
       <c r="H86" t="s">
-        <v>334</v>
+        <v>466</v>
       </c>
       <c r="I86" t="s">
-        <v>332</v>
+        <v>464</v>
       </c>
       <c r="J86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>432</v>
+        <v>456</v>
+      </c>
+      <c r="B87" t="s">
+        <v>336</v>
       </c>
       <c r="C87">
         <v>2023</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>205</v>
+      </c>
+      <c r="G87" t="s">
+        <v>334</v>
+      </c>
+      <c r="H87" t="s">
+        <v>335</v>
+      </c>
+      <c r="I87" t="s">
+        <v>333</v>
       </c>
       <c r="J87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="B88" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C88">
         <v>2023</v>
       </c>
       <c r="D88" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E88" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G88" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H88" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I88" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K88" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>441</v>
+        <v>461</v>
+      </c>
+      <c r="B89" t="s">
+        <v>471</v>
       </c>
       <c r="C89">
         <v>2023</v>
       </c>
       <c r="D89" t="s">
+        <v>89</v>
+      </c>
+      <c r="F89" t="s">
+        <v>470</v>
+      </c>
+      <c r="G89" t="s">
+        <v>468</v>
+      </c>
+      <c r="H89" t="s">
+        <v>469</v>
+      </c>
+      <c r="J89" t="s">
+        <v>103</v>
+      </c>
+      <c r="K89" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>465</v>
+      </c>
+      <c r="B90" t="s">
+        <v>341</v>
+      </c>
+      <c r="C90">
+        <v>2024</v>
+      </c>
+      <c r="D90" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" t="s">
+        <v>154</v>
+      </c>
+      <c r="G90" t="s">
+        <v>343</v>
+      </c>
+      <c r="H90" t="s">
+        <v>344</v>
+      </c>
+      <c r="I90" t="s">
+        <v>342</v>
+      </c>
+      <c r="J90" t="s">
+        <v>103</v>
+      </c>
+      <c r="K90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>471</v>
+      </c>
+      <c r="B91" t="s">
+        <v>345</v>
+      </c>
+      <c r="C91">
+        <v>2024</v>
+      </c>
+      <c r="D91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" t="s">
+        <v>105</v>
+      </c>
+      <c r="G91" t="s">
+        <v>346</v>
+      </c>
+      <c r="H91" t="s">
+        <v>352</v>
+      </c>
+      <c r="I91" t="s">
+        <v>347</v>
+      </c>
+      <c r="J91" t="s">
+        <v>103</v>
+      </c>
+      <c r="K91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>475</v>
+      </c>
+      <c r="B92" t="s">
+        <v>348</v>
+      </c>
+      <c r="C92">
+        <v>2024</v>
+      </c>
+      <c r="D92" t="s">
         <v>92</v>
       </c>
-      <c r="J89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>442</v>
-      </c>
-      <c r="C90">
-        <v>2023</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E92" t="s">
+        <v>105</v>
+      </c>
+      <c r="G92" t="s">
+        <v>350</v>
+      </c>
+      <c r="H92" t="s">
+        <v>351</v>
+      </c>
+      <c r="I92" t="s">
+        <v>349</v>
+      </c>
+      <c r="J92" t="s">
+        <v>103</v>
+      </c>
+      <c r="K92" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>476</v>
+      </c>
+      <c r="B93" t="s">
+        <v>356</v>
+      </c>
+      <c r="C93">
+        <v>2024</v>
+      </c>
+      <c r="D93" t="s">
         <v>93</v>
       </c>
-      <c r="J90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>443</v>
-      </c>
-      <c r="B91" t="s">
-        <v>340</v>
-      </c>
-      <c r="C91">
-        <v>2023</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E93" t="s">
+        <v>105</v>
+      </c>
+      <c r="G93" t="s">
+        <v>353</v>
+      </c>
+      <c r="H93" t="s">
+        <v>354</v>
+      </c>
+      <c r="I93" t="s">
+        <v>355</v>
+      </c>
+      <c r="J93" t="s">
+        <v>103</v>
+      </c>
+      <c r="K93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>482</v>
+      </c>
+      <c r="B94" t="s">
+        <v>357</v>
+      </c>
+      <c r="C94">
+        <v>2024</v>
+      </c>
+      <c r="D94" t="s">
+        <v>206</v>
+      </c>
+      <c r="E94" t="s">
+        <v>105</v>
+      </c>
+      <c r="G94" t="s">
+        <v>358</v>
+      </c>
+      <c r="H94" t="s">
+        <v>359</v>
+      </c>
+      <c r="I94" t="s">
+        <v>360</v>
+      </c>
+      <c r="J94" t="s">
+        <v>103</v>
+      </c>
+      <c r="K94" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>483</v>
+      </c>
+      <c r="B95" t="s">
+        <v>361</v>
+      </c>
+      <c r="C95">
+        <v>2024</v>
+      </c>
+      <c r="D95" t="s">
         <v>94</v>
       </c>
-      <c r="E91" t="s">
-        <v>115</v>
-      </c>
-      <c r="G91" t="s">
-        <v>341</v>
-      </c>
-      <c r="H91" t="s">
-        <v>342</v>
-      </c>
-      <c r="I91" t="s">
-        <v>343</v>
-      </c>
-      <c r="J91" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>444</v>
-      </c>
-      <c r="B92" t="s">
-        <v>344</v>
-      </c>
-      <c r="C92">
-        <v>2023</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E95" t="s">
+        <v>105</v>
+      </c>
+      <c r="G95" t="s">
+        <v>362</v>
+      </c>
+      <c r="H95" t="s">
+        <v>363</v>
+      </c>
+      <c r="I95" t="s">
+        <v>364</v>
+      </c>
+      <c r="J95" t="s">
+        <v>103</v>
+      </c>
+      <c r="K95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>484</v>
+      </c>
+      <c r="B96" t="s">
+        <v>365</v>
+      </c>
+      <c r="C96">
+        <v>2024</v>
+      </c>
+      <c r="D96" t="s">
         <v>95</v>
       </c>
-      <c r="E92" t="s">
-        <v>115</v>
-      </c>
-      <c r="G92" t="s">
-        <v>345</v>
-      </c>
-      <c r="H92" t="s">
-        <v>346</v>
-      </c>
-      <c r="I92" t="s">
-        <v>347</v>
-      </c>
-      <c r="J92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>445</v>
-      </c>
-      <c r="C93">
-        <v>2023</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E96" t="s">
+        <v>105</v>
+      </c>
+      <c r="G96" t="s">
+        <v>366</v>
+      </c>
+      <c r="H96" t="s">
+        <v>367</v>
+      </c>
+      <c r="J96" t="s">
+        <v>103</v>
+      </c>
+      <c r="K96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>485</v>
+      </c>
+      <c r="B97" t="s">
+        <v>368</v>
+      </c>
+      <c r="C97">
+        <v>2024</v>
+      </c>
+      <c r="D97" t="s">
         <v>96</v>
       </c>
-      <c r="J93" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>450</v>
-      </c>
-      <c r="C94">
-        <v>2023</v>
-      </c>
-      <c r="D94" t="s">
-        <v>215</v>
-      </c>
-      <c r="J94" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>451</v>
-      </c>
-      <c r="C95">
-        <v>2023</v>
-      </c>
-      <c r="D95" t="s">
-        <v>97</v>
-      </c>
-      <c r="J95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>456</v>
-      </c>
-      <c r="B96" t="s">
-        <v>351</v>
-      </c>
-      <c r="C96">
-        <v>2023</v>
-      </c>
-      <c r="D96" t="s">
-        <v>216</v>
-      </c>
-      <c r="G96" t="s">
-        <v>349</v>
-      </c>
-      <c r="H96" t="s">
-        <v>350</v>
-      </c>
-      <c r="I96" t="s">
-        <v>348</v>
-      </c>
-      <c r="J96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>460</v>
-      </c>
-      <c r="B97" t="s">
-        <v>352</v>
-      </c>
-      <c r="C97">
-        <v>2023</v>
-      </c>
-      <c r="D97" t="s">
-        <v>98</v>
-      </c>
       <c r="E97" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="H97" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="I97" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="J97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>461</v>
-      </c>
-      <c r="C98">
-        <v>2023</v>
-      </c>
-      <c r="D98" t="s">
-        <v>99</v>
-      </c>
-      <c r="J98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>465</v>
-      </c>
-      <c r="B99" t="s">
-        <v>356</v>
-      </c>
-      <c r="C99">
-        <v>2024</v>
-      </c>
-      <c r="D99" t="s">
-        <v>100</v>
-      </c>
-      <c r="E99" t="s">
-        <v>164</v>
-      </c>
-      <c r="G99" t="s">
-        <v>358</v>
-      </c>
-      <c r="H99" t="s">
-        <v>359</v>
-      </c>
-      <c r="I99" t="s">
-        <v>357</v>
-      </c>
-      <c r="J99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>471</v>
-      </c>
-      <c r="B100" t="s">
-        <v>360</v>
-      </c>
-      <c r="C100">
-        <v>2024</v>
-      </c>
-      <c r="D100" t="s">
-        <v>101</v>
-      </c>
-      <c r="E100" t="s">
-        <v>115</v>
-      </c>
-      <c r="G100" t="s">
-        <v>361</v>
-      </c>
-      <c r="H100" t="s">
-        <v>367</v>
-      </c>
-      <c r="I100" t="s">
-        <v>362</v>
-      </c>
-      <c r="J100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>475</v>
-      </c>
-      <c r="B101" t="s">
-        <v>363</v>
-      </c>
-      <c r="C101">
-        <v>2024</v>
-      </c>
-      <c r="D101" t="s">
-        <v>102</v>
-      </c>
-      <c r="E101" t="s">
-        <v>115</v>
-      </c>
-      <c r="G101" t="s">
-        <v>365</v>
-      </c>
-      <c r="H101" t="s">
-        <v>366</v>
-      </c>
-      <c r="I101" t="s">
-        <v>364</v>
-      </c>
-      <c r="J101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>476</v>
-      </c>
-      <c r="B102" t="s">
-        <v>371</v>
-      </c>
-      <c r="C102">
-        <v>2024</v>
-      </c>
-      <c r="D102" t="s">
-        <v>103</v>
-      </c>
-      <c r="E102" t="s">
-        <v>115</v>
-      </c>
-      <c r="G102" t="s">
-        <v>368</v>
-      </c>
-      <c r="H102" t="s">
-        <v>369</v>
-      </c>
-      <c r="I102" t="s">
-        <v>370</v>
-      </c>
-      <c r="J102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>482</v>
-      </c>
-      <c r="B103" t="s">
-        <v>372</v>
-      </c>
-      <c r="C103">
-        <v>2024</v>
-      </c>
-      <c r="D103" t="s">
-        <v>217</v>
-      </c>
-      <c r="E103" t="s">
-        <v>115</v>
-      </c>
-      <c r="G103" t="s">
-        <v>373</v>
-      </c>
-      <c r="H103" t="s">
-        <v>374</v>
-      </c>
-      <c r="I103" t="s">
-        <v>375</v>
-      </c>
-      <c r="J103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>483</v>
-      </c>
-      <c r="B104" t="s">
-        <v>376</v>
-      </c>
-      <c r="C104">
-        <v>2024</v>
-      </c>
-      <c r="D104" t="s">
-        <v>104</v>
-      </c>
-      <c r="E104" t="s">
-        <v>115</v>
-      </c>
-      <c r="G104" t="s">
-        <v>377</v>
-      </c>
-      <c r="H104" t="s">
-        <v>378</v>
-      </c>
-      <c r="I104" t="s">
-        <v>379</v>
-      </c>
-      <c r="J104" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>484</v>
-      </c>
-      <c r="B105" t="s">
-        <v>380</v>
-      </c>
-      <c r="C105">
-        <v>2024</v>
-      </c>
-      <c r="D105" t="s">
-        <v>105</v>
-      </c>
-      <c r="E105" t="s">
-        <v>115</v>
-      </c>
-      <c r="G105" t="s">
-        <v>381</v>
-      </c>
-      <c r="H105" t="s">
-        <v>382</v>
-      </c>
-      <c r="J105" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>485</v>
-      </c>
-      <c r="B106" t="s">
-        <v>383</v>
-      </c>
-      <c r="C106">
-        <v>2024</v>
-      </c>
-      <c r="D106" t="s">
-        <v>106</v>
-      </c>
-      <c r="E106" t="s">
-        <v>115</v>
-      </c>
-      <c r="G106" t="s">
-        <v>384</v>
-      </c>
-      <c r="H106" t="s">
-        <v>385</v>
-      </c>
-      <c r="I106" t="s">
-        <v>386</v>
-      </c>
-      <c r="J106" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="K97" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/input/raw_data/data_extraction/data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/data_extraction_end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0555E909-BC76-3540-A3F3-2509C42D2C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A10A1A-2507-DC4A-AACD-371D5CC81909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="13060" windowWidth="20560" windowHeight="12220" xr2:uid="{A46F0182-2702-C049-8D59-35AAB89CA329}"/>
+    <workbookView xWindow="20560" yWindow="13080" windowWidth="20560" windowHeight="12220" xr2:uid="{A46F0182-2702-C049-8D59-35AAB89CA329}"/>
   </bookViews>
   <sheets>
     <sheet name="data_extraction_start" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="495">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1449,6 +1449,75 @@
   </si>
   <si>
     <t>Ishak, A.</t>
+  </si>
+  <si>
+    <t>10.1016/j.ejcts.2007.01.073</t>
+  </si>
+  <si>
+    <t>10.1176/appi.psy.48.2.162</t>
+  </si>
+  <si>
+    <t>10.1016/j.athoracsur.2007.07.027</t>
+  </si>
+  <si>
+    <t>10.4253/wjge.v2.i5.186</t>
+  </si>
+  <si>
+    <t>10.1016/j.hlc.2011.01.006</t>
+  </si>
+  <si>
+    <t>10.1159/000338839</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.1159/000346287</t>
+  </si>
+  <si>
+    <t>10.1007/s00383-011-3026-x</t>
+  </si>
+  <si>
+    <t>10.1016/j.clinimag.2011.11.017</t>
+  </si>
+  <si>
+    <t>10.1148/rg.327125035</t>
+  </si>
+  <si>
+    <t>10.1016/j.jss.2013.04.078</t>
+  </si>
+  <si>
+    <t>10.1016/j.ajem.2013.10.007</t>
+  </si>
+  <si>
+    <t>10.1177/102490791502200107</t>
+  </si>
+  <si>
+    <t>10.1515/pjs-2015-0006</t>
+  </si>
+  <si>
+    <t>10.1080/08998280.2017.11929541</t>
+  </si>
+  <si>
+    <t>10.11138/gchir/2017.38.2.080</t>
+  </si>
+  <si>
+    <t>10.1136/bcr-2018-225241</t>
+  </si>
+  <si>
+    <t>10.31729/jnma.4055</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijscr.2020.04.019</t>
+  </si>
+  <si>
+    <t>10.12890/2020_001824</t>
+  </si>
+  <si>
+    <t>10.12659/AJCR.934164</t>
+  </si>
+  <si>
+    <t>10.1093/bjs/znad348.067</t>
+  </si>
+  <si>
+    <t>10.52916/jmrs244144</t>
   </si>
 </sst>
 </file>
@@ -2320,8 +2389,8 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J89" sqref="J89"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2676,6 +2745,9 @@
       <c r="H11" t="s">
         <v>132</v>
       </c>
+      <c r="I11" t="s">
+        <v>472</v>
+      </c>
       <c r="J11" t="s">
         <v>103</v>
       </c>
@@ -2705,6 +2777,9 @@
       <c r="H12" t="s">
         <v>135</v>
       </c>
+      <c r="I12" t="s">
+        <v>473</v>
+      </c>
       <c r="J12" t="s">
         <v>103</v>
       </c>
@@ -2734,6 +2809,9 @@
       <c r="H13" t="s">
         <v>139</v>
       </c>
+      <c r="I13" t="s">
+        <v>474</v>
+      </c>
       <c r="J13" t="s">
         <v>103</v>
       </c>
@@ -2792,6 +2870,9 @@
       <c r="E15" t="s">
         <v>105</v>
       </c>
+      <c r="I15" t="s">
+        <v>475</v>
+      </c>
       <c r="J15" t="s">
         <v>103</v>
       </c>
@@ -2850,6 +2931,9 @@
       <c r="E17" t="s">
         <v>105</v>
       </c>
+      <c r="I17" t="s">
+        <v>476</v>
+      </c>
       <c r="J17" t="s">
         <v>103</v>
       </c>
@@ -2879,6 +2963,9 @@
       <c r="H18" t="s">
         <v>144</v>
       </c>
+      <c r="I18" t="s">
+        <v>477</v>
+      </c>
       <c r="J18" t="s">
         <v>103</v>
       </c>
@@ -2908,6 +2995,9 @@
       <c r="H19" t="s">
         <v>147</v>
       </c>
+      <c r="I19" t="s">
+        <v>478</v>
+      </c>
       <c r="J19" t="s">
         <v>103</v>
       </c>
@@ -2937,6 +3027,9 @@
       <c r="H20" t="s">
         <v>151</v>
       </c>
+      <c r="I20" t="s">
+        <v>479</v>
+      </c>
       <c r="J20" t="s">
         <v>103</v>
       </c>
@@ -2966,6 +3059,9 @@
       <c r="H21" t="s">
         <v>153</v>
       </c>
+      <c r="I21" t="s">
+        <v>480</v>
+      </c>
       <c r="J21" t="s">
         <v>103</v>
       </c>
@@ -2995,6 +3091,9 @@
       <c r="H22" t="s">
         <v>129</v>
       </c>
+      <c r="I22" t="s">
+        <v>481</v>
+      </c>
       <c r="J22" t="s">
         <v>103</v>
       </c>
@@ -3027,6 +3126,9 @@
       <c r="H23" t="s">
         <v>389</v>
       </c>
+      <c r="I23" t="s">
+        <v>482</v>
+      </c>
       <c r="J23" t="s">
         <v>103</v>
       </c>
@@ -3056,6 +3158,9 @@
       <c r="H24" t="s">
         <v>158</v>
       </c>
+      <c r="I24" t="s">
+        <v>483</v>
+      </c>
       <c r="J24" t="s">
         <v>103</v>
       </c>
@@ -3085,6 +3190,9 @@
       <c r="H25" t="s">
         <v>161</v>
       </c>
+      <c r="I25" t="s">
+        <v>484</v>
+      </c>
       <c r="J25" t="s">
         <v>103</v>
       </c>
@@ -3146,6 +3254,9 @@
       <c r="H27" t="s">
         <v>166</v>
       </c>
+      <c r="I27" t="s">
+        <v>485</v>
+      </c>
       <c r="J27" t="s">
         <v>103</v>
       </c>
@@ -3338,6 +3449,9 @@
       <c r="H33" t="s">
         <v>187</v>
       </c>
+      <c r="I33" t="s">
+        <v>486</v>
+      </c>
       <c r="J33" t="s">
         <v>103</v>
       </c>
@@ -3370,6 +3484,9 @@
       <c r="H34" t="s">
         <v>400</v>
       </c>
+      <c r="I34" t="s">
+        <v>487</v>
+      </c>
       <c r="J34" t="s">
         <v>103</v>
       </c>
@@ -3524,6 +3641,9 @@
       <c r="E39" t="s">
         <v>105</v>
       </c>
+      <c r="I39" t="s">
+        <v>488</v>
+      </c>
       <c r="J39" t="s">
         <v>103</v>
       </c>
@@ -3620,6 +3740,9 @@
       <c r="H42" t="s">
         <v>213</v>
       </c>
+      <c r="I42" t="s">
+        <v>489</v>
+      </c>
       <c r="J42" t="s">
         <v>103</v>
       </c>
@@ -3873,6 +3996,9 @@
       <c r="H50" t="s">
         <v>239</v>
       </c>
+      <c r="I50" t="s">
+        <v>490</v>
+      </c>
       <c r="J50" t="s">
         <v>103</v>
       </c>
@@ -4085,6 +4211,9 @@
       <c r="D57" t="s">
         <v>60</v>
       </c>
+      <c r="I57" t="s">
+        <v>491</v>
+      </c>
       <c r="J57" t="s">
         <v>104</v>
       </c>
@@ -4259,6 +4388,9 @@
       <c r="D63" t="s">
         <v>66</v>
       </c>
+      <c r="I63" t="s">
+        <v>492</v>
+      </c>
       <c r="J63" t="s">
         <v>104</v>
       </c>
@@ -5088,6 +5220,9 @@
       <c r="H89" t="s">
         <v>469</v>
       </c>
+      <c r="I89" t="s">
+        <v>493</v>
+      </c>
       <c r="J89" t="s">
         <v>103</v>
       </c>
@@ -5308,6 +5443,9 @@
       </c>
       <c r="H96" t="s">
         <v>367</v>
+      </c>
+      <c r="I96" t="s">
+        <v>494</v>
       </c>
       <c r="J96" t="s">
         <v>103</v>

--- a/input/raw_data/data_extraction/data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/data_extraction_end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A10A1A-2507-DC4A-AACD-371D5CC81909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB9A687-366E-2B47-B1C3-8E716699C166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="13080" windowWidth="20560" windowHeight="12220" xr2:uid="{A46F0182-2702-C049-8D59-35AAB89CA329}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12220" xr2:uid="{A46F0182-2702-C049-8D59-35AAB89CA329}"/>
   </bookViews>
   <sheets>
     <sheet name="data_extraction_start" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="488">
   <si>
     <t>Study_ID</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Unusual Cervical Foreign Body - A Neglected Thermometer For 5 Years: A Case Report</t>
   </si>
   <si>
-    <t>Intentional Foreign Body Ingestions: A Complex, Recurrent And Costly Issue</t>
-  </si>
-  <si>
     <t>Intestinal Perforation By Ingested Foreign Bodies</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
     <t>Accidental Or Intentional Ingestion Of Toothbrushes: Experience With 8 Adult Patients</t>
   </si>
   <si>
-    <t>Gastrointestinal System Foreign Bodies.</t>
-  </si>
-  <si>
     <t>Management Of Foreign Body Ingestion In Adults: Time To Stop And Rethink Endoscopy</t>
   </si>
   <si>
@@ -338,9 +332,6 @@
     <t>Data_Extracted</t>
   </si>
   <si>
-    <t>Bibliography_Searched</t>
-  </si>
-  <si>
     <t>Tanigawa, K.</t>
   </si>
   <si>
@@ -1325,9 +1316,6 @@
     <t>Zong, Y.</t>
   </si>
   <si>
-    <t>Prospective Case Series</t>
-  </si>
-  <si>
     <t>Li, X.</t>
   </si>
   <si>
@@ -1355,15 +1343,6 @@
     <t>Yadollahi, S.</t>
   </si>
   <si>
-    <t>Gunes, O.</t>
-  </si>
-  <si>
-    <t>Katip Çelebi University Atatürk Training and Research Hospital</t>
-  </si>
-  <si>
-    <t>10.14744/less.2023.45403</t>
-  </si>
-  <si>
     <t>Tambakis, G.</t>
   </si>
   <si>
@@ -1511,13 +1490,13 @@
     <t>10.12890/2020_001824</t>
   </si>
   <si>
-    <t>10.12659/AJCR.934164</t>
-  </si>
-  <si>
     <t>10.1093/bjs/znad348.067</t>
   </si>
   <si>
     <t>10.52916/jmrs244144</t>
+  </si>
+  <si>
+    <t>Bib_Search_Complete</t>
   </si>
 </sst>
 </file>
@@ -2386,11 +2365,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6759A01A-4FB2-4345-9089-7E4839849A4B}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2417,25 +2396,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>487</v>
       </c>
       <c r="L1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M1" t="s">
         <v>7</v>
@@ -2446,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>1886</v>
@@ -2455,22 +2434,22 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2478,7 +2457,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>1993</v>
@@ -2487,16 +2466,16 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2504,7 +2483,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C4">
         <v>1996</v>
@@ -2513,25 +2492,25 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I4" t="s">
         <v>374</v>
       </c>
-      <c r="G4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I4" t="s">
-        <v>377</v>
-      </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -2539,7 +2518,7 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>1996</v>
@@ -2548,22 +2527,22 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -2571,7 +2550,7 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>1997</v>
@@ -2580,22 +2559,22 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
         <v>105</v>
       </c>
-      <c r="G6" t="s">
-        <v>108</v>
-      </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -2603,7 +2582,7 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7">
         <v>1998</v>
@@ -2612,22 +2591,22 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2635,7 +2614,7 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8">
         <v>1998</v>
@@ -2644,19 +2623,19 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2664,7 +2643,7 @@
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <v>2004</v>
@@ -2673,22 +2652,22 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" t="s">
         <v>117</v>
       </c>
-      <c r="H9" t="s">
-        <v>120</v>
-      </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -2696,7 +2675,7 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10">
         <v>2006</v>
@@ -2705,22 +2684,22 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" t="s">
         <v>127</v>
       </c>
-      <c r="H10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" t="s">
-        <v>130</v>
-      </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -2728,7 +2707,7 @@
         <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C11">
         <v>2007</v>
@@ -2737,22 +2716,22 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -2760,7 +2739,7 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C12">
         <v>2007</v>
@@ -2769,22 +2748,22 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I12" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -2792,7 +2771,7 @@
         <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13">
         <v>2008</v>
@@ -2801,22 +2780,22 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I13" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -2824,7 +2803,7 @@
         <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C14">
         <v>2009</v>
@@ -2833,25 +2812,25 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -2859,7 +2838,7 @@
         <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C15">
         <v>2010</v>
@@ -2868,16 +2847,16 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -2885,7 +2864,7 @@
         <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C16">
         <v>2010</v>
@@ -2894,25 +2873,25 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G16" t="s">
+        <v>380</v>
+      </c>
+      <c r="H16" t="s">
+        <v>381</v>
+      </c>
+      <c r="I16" t="s">
+        <v>382</v>
+      </c>
+      <c r="J16" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" t="s">
         <v>383</v>
-      </c>
-      <c r="H16" t="s">
-        <v>384</v>
-      </c>
-      <c r="I16" t="s">
-        <v>385</v>
-      </c>
-      <c r="J16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M16" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -2920,7 +2899,7 @@
         <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C17">
         <v>2011</v>
@@ -2929,16 +2908,16 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I17" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -2946,7 +2925,7 @@
         <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C18">
         <v>2012</v>
@@ -2955,22 +2934,22 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -2978,7 +2957,7 @@
         <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C19">
         <v>2012</v>
@@ -2987,22 +2966,22 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I19" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3010,7 +2989,7 @@
         <v>172</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20">
         <v>2011</v>
@@ -3019,22 +2998,22 @@
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" t="s">
         <v>148</v>
       </c>
-      <c r="H20" t="s">
-        <v>151</v>
-      </c>
       <c r="I20" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3042,7 +3021,7 @@
         <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C21">
         <v>2012</v>
@@ -3051,22 +3030,22 @@
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3074,7 +3053,7 @@
         <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C22">
         <v>2012</v>
@@ -3083,22 +3062,22 @@
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3106,34 +3085,34 @@
         <v>192</v>
       </c>
       <c r="B23" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C23">
         <v>2013</v>
       </c>
       <c r="D23" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
         <v>388</v>
       </c>
-      <c r="E23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" t="s">
-        <v>391</v>
-      </c>
       <c r="G23" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H23" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I23" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3141,7 +3120,7 @@
         <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C24">
         <v>2014</v>
@@ -3150,22 +3129,22 @@
         <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I24" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3173,7 +3152,7 @@
         <v>214</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C25">
         <v>2015</v>
@@ -3182,22 +3161,22 @@
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I25" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3205,7 +3184,7 @@
         <v>217</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C26">
         <v>2015</v>
@@ -3214,22 +3193,22 @@
         <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" t="s">
         <v>162</v>
       </c>
-      <c r="H26" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" t="s">
-        <v>165</v>
-      </c>
       <c r="J26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3237,7 +3216,7 @@
         <v>219</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C27">
         <v>2015</v>
@@ -3246,22 +3225,22 @@
         <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I27" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -3269,7 +3248,7 @@
         <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C28">
         <v>2015</v>
@@ -3278,22 +3257,22 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3301,7 +3280,7 @@
         <v>231</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C29">
         <v>2015</v>
@@ -3310,22 +3289,22 @@
         <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G29" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" t="s">
         <v>173</v>
       </c>
-      <c r="H29" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29" t="s">
-        <v>176</v>
-      </c>
       <c r="J29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -3333,7 +3312,7 @@
         <v>238</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C30">
         <v>2016</v>
@@ -3342,22 +3321,22 @@
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -3365,7 +3344,7 @@
         <v>256</v>
       </c>
       <c r="B31" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C31">
         <v>2016</v>
@@ -3374,25 +3353,25 @@
         <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
+        <v>391</v>
+      </c>
+      <c r="G31" t="s">
+        <v>392</v>
+      </c>
+      <c r="H31" t="s">
+        <v>393</v>
+      </c>
+      <c r="I31" t="s">
         <v>394</v>
       </c>
-      <c r="G31" t="s">
-        <v>395</v>
-      </c>
-      <c r="H31" t="s">
-        <v>396</v>
-      </c>
-      <c r="I31" t="s">
-        <v>397</v>
-      </c>
       <c r="J31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -3400,7 +3379,7 @@
         <v>260</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C32">
         <v>2017</v>
@@ -3409,22 +3388,22 @@
         <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -3432,7 +3411,7 @@
         <v>261</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C33">
         <v>2017</v>
@@ -3441,22 +3420,22 @@
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I33" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="J33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -3464,7 +3443,7 @@
         <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C34">
         <v>2017</v>
@@ -3473,25 +3452,25 @@
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F34" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H34" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I34" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="J34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -3499,7 +3478,7 @@
         <v>273</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C35">
         <v>2017</v>
@@ -3508,22 +3487,22 @@
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I35" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -3531,7 +3510,7 @@
         <v>274</v>
       </c>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C36">
         <v>2017</v>
@@ -3540,22 +3519,22 @@
         <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G36" t="s">
+        <v>190</v>
+      </c>
+      <c r="H36" t="s">
+        <v>191</v>
+      </c>
+      <c r="I36" t="s">
         <v>193</v>
       </c>
-      <c r="H36" t="s">
-        <v>194</v>
-      </c>
-      <c r="I36" t="s">
-        <v>196</v>
-      </c>
       <c r="J36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -3563,7 +3542,7 @@
         <v>278</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C37">
         <v>2017</v>
@@ -3572,22 +3551,22 @@
         <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -3595,7 +3574,7 @@
         <v>288</v>
       </c>
       <c r="B38" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C38">
         <v>2018</v>
@@ -3604,25 +3583,25 @@
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F38" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G38" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3630,7 +3609,7 @@
         <v>292</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C39">
         <v>2018</v>
@@ -3639,16 +3618,16 @@
         <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I39" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="J39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -3656,7 +3635,7 @@
         <v>300</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C40">
         <v>2018</v>
@@ -3665,22 +3644,22 @@
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H40" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I40" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3688,7 +3667,7 @@
         <v>307</v>
       </c>
       <c r="B41" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C41">
         <v>2019</v>
@@ -3697,25 +3676,25 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s">
+        <v>404</v>
+      </c>
+      <c r="G41" t="s">
+        <v>405</v>
+      </c>
+      <c r="H41" t="s">
+        <v>406</v>
+      </c>
+      <c r="I41" t="s">
         <v>407</v>
       </c>
-      <c r="G41" t="s">
-        <v>408</v>
-      </c>
-      <c r="H41" t="s">
-        <v>409</v>
-      </c>
-      <c r="I41" t="s">
-        <v>410</v>
-      </c>
       <c r="J41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -3723,7 +3702,7 @@
         <v>311</v>
       </c>
       <c r="B42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C42">
         <v>2019</v>
@@ -3732,22 +3711,22 @@
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I42" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="J42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3755,31 +3734,31 @@
         <v>312</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C43">
         <v>2019</v>
       </c>
       <c r="D43" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F43" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H43" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I43" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -3787,7 +3766,7 @@
         <v>314</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C44">
         <v>2019</v>
@@ -3796,22 +3775,22 @@
         <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G44" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H44" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -3819,7 +3798,7 @@
         <v>319</v>
       </c>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C45">
         <v>2019</v>
@@ -3828,22 +3807,22 @@
         <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H45" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3851,7 +3830,7 @@
         <v>321</v>
       </c>
       <c r="B46" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C46">
         <v>2019</v>
@@ -3860,25 +3839,25 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F46" t="s">
+        <v>412</v>
+      </c>
+      <c r="G46" t="s">
         <v>415</v>
       </c>
-      <c r="G46" t="s">
-        <v>418</v>
-      </c>
       <c r="H46" t="s">
+        <v>413</v>
+      </c>
+      <c r="I46" t="s">
         <v>416</v>
       </c>
-      <c r="I46" t="s">
-        <v>419</v>
-      </c>
       <c r="J46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3886,7 +3865,7 @@
         <v>322</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C47">
         <v>2019</v>
@@ -3895,22 +3874,22 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G47" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H47" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I47" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3918,7 +3897,7 @@
         <v>327</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C48">
         <v>2019</v>
@@ -3927,19 +3906,19 @@
         <v>52</v>
       </c>
       <c r="G48" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H48" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I48" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -3947,7 +3926,7 @@
         <v>328</v>
       </c>
       <c r="B49" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C49">
         <v>2019</v>
@@ -3956,22 +3935,22 @@
         <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G49" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H49" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I49" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -3979,31 +3958,31 @@
         <v>333</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C50">
         <v>2020</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G50" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H50" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I50" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="J50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -4011,7 +3990,7 @@
         <v>336</v>
       </c>
       <c r="B51" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C51">
         <v>2020</v>
@@ -4020,25 +3999,25 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F51" t="s">
+        <v>417</v>
+      </c>
+      <c r="G51" t="s">
         <v>420</v>
       </c>
-      <c r="G51" t="s">
-        <v>423</v>
-      </c>
       <c r="H51" t="s">
+        <v>418</v>
+      </c>
+      <c r="I51" t="s">
         <v>421</v>
       </c>
-      <c r="I51" t="s">
-        <v>424</v>
-      </c>
       <c r="J51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -4046,7 +4025,7 @@
         <v>342</v>
       </c>
       <c r="B52" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C52">
         <v>2020</v>
@@ -4055,22 +4034,22 @@
         <v>55</v>
       </c>
       <c r="F52" t="s">
+        <v>422</v>
+      </c>
+      <c r="G52" t="s">
+        <v>423</v>
+      </c>
+      <c r="H52" t="s">
+        <v>424</v>
+      </c>
+      <c r="I52" t="s">
         <v>425</v>
       </c>
-      <c r="G52" t="s">
-        <v>426</v>
-      </c>
-      <c r="H52" t="s">
-        <v>427</v>
-      </c>
-      <c r="I52" t="s">
-        <v>428</v>
-      </c>
       <c r="J52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -4078,7 +4057,7 @@
         <v>345</v>
       </c>
       <c r="B53" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C53">
         <v>2020</v>
@@ -4087,22 +4066,22 @@
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>430</v>
+        <v>204</v>
       </c>
       <c r="G53" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H53" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I53" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -4110,7 +4089,7 @@
         <v>348</v>
       </c>
       <c r="B54" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C54">
         <v>2020</v>
@@ -4119,22 +4098,22 @@
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G54" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H54" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K54" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -4142,7 +4121,7 @@
         <v>349</v>
       </c>
       <c r="B55" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C55">
         <v>2020</v>
@@ -4151,22 +4130,22 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G55" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H55" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I55" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J55" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -4174,7 +4153,7 @@
         <v>353</v>
       </c>
       <c r="B56" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C56">
         <v>2020</v>
@@ -4183,22 +4162,22 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G56" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H56" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I56" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K56" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -4212,13 +4191,13 @@
         <v>60</v>
       </c>
       <c r="I57" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="J57" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -4226,7 +4205,7 @@
         <v>359</v>
       </c>
       <c r="B58" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C58">
         <v>2020</v>
@@ -4235,22 +4214,22 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G58" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H58" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I58" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J58" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K58" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -4258,7 +4237,7 @@
         <v>360</v>
       </c>
       <c r="B59" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C59">
         <v>2020</v>
@@ -4267,19 +4246,19 @@
         <v>62</v>
       </c>
       <c r="G59" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H59" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K59" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -4287,7 +4266,7 @@
         <v>369</v>
       </c>
       <c r="B60" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C60">
         <v>2021</v>
@@ -4296,22 +4275,22 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G60" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H60" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I60" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J60" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -4319,7 +4298,7 @@
         <v>370</v>
       </c>
       <c r="B61" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C61">
         <v>2021</v>
@@ -4328,22 +4307,22 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G61" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H61" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I61" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K61" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -4351,7 +4330,7 @@
         <v>373</v>
       </c>
       <c r="B62" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C62">
         <v>2021</v>
@@ -4360,27 +4339,30 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G62" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H62" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I62" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J62" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K62" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>375</v>
+        <v>377</v>
+      </c>
+      <c r="B63" t="s">
+        <v>427</v>
       </c>
       <c r="C63">
         <v>2021</v>
@@ -4388,22 +4370,28 @@
       <c r="D63" t="s">
         <v>66</v>
       </c>
+      <c r="G63" t="s">
+        <v>273</v>
+      </c>
+      <c r="H63" t="s">
+        <v>274</v>
+      </c>
       <c r="I63" t="s">
-        <v>492</v>
+        <v>275</v>
       </c>
       <c r="J63" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B64" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C64">
         <v>2021</v>
@@ -4411,28 +4399,31 @@
       <c r="D64" t="s">
         <v>67</v>
       </c>
+      <c r="E64" t="s">
+        <v>102</v>
+      </c>
       <c r="G64" t="s">
-        <v>276</v>
+        <v>429</v>
       </c>
       <c r="H64" t="s">
-        <v>277</v>
+        <v>430</v>
       </c>
       <c r="I64" t="s">
-        <v>278</v>
+        <v>431</v>
       </c>
       <c r="J64" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K64" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B65" t="s">
-        <v>432</v>
+        <v>278</v>
       </c>
       <c r="C65">
         <v>2021</v>
@@ -4441,30 +4432,30 @@
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G65" t="s">
-        <v>433</v>
+        <v>276</v>
       </c>
       <c r="H65" t="s">
-        <v>434</v>
+        <v>129</v>
       </c>
       <c r="I65" t="s">
-        <v>435</v>
+        <v>277</v>
       </c>
       <c r="J65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K65" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C66">
         <v>2021</v>
@@ -4473,62 +4464,62 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G66" t="s">
         <v>279</v>
       </c>
       <c r="H66" t="s">
-        <v>132</v>
+        <v>280</v>
       </c>
       <c r="I66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J66" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="B67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C67">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D67" t="s">
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G67" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H67" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I67" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J67" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B68" t="s">
-        <v>286</v>
+        <v>435</v>
       </c>
       <c r="C68">
         <v>2022</v>
@@ -4537,30 +4528,30 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="G68" t="s">
-        <v>287</v>
+        <v>432</v>
       </c>
       <c r="H68" t="s">
-        <v>288</v>
+        <v>433</v>
       </c>
       <c r="I68" t="s">
-        <v>289</v>
+        <v>434</v>
       </c>
       <c r="J68" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K68" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B69" t="s">
-        <v>439</v>
+        <v>287</v>
       </c>
       <c r="C69">
         <v>2022</v>
@@ -4569,30 +4560,30 @@
         <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="G69" t="s">
-        <v>436</v>
+        <v>289</v>
       </c>
       <c r="H69" t="s">
-        <v>437</v>
+        <v>290</v>
       </c>
       <c r="I69" t="s">
-        <v>438</v>
+        <v>288</v>
       </c>
       <c r="J69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B70" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C70">
         <v>2022</v>
@@ -4601,30 +4592,30 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G70" t="s">
+        <v>293</v>
+      </c>
+      <c r="H70" t="s">
+        <v>294</v>
+      </c>
+      <c r="I70" t="s">
         <v>292</v>
       </c>
-      <c r="H70" t="s">
-        <v>293</v>
-      </c>
-      <c r="I70" t="s">
-        <v>291</v>
-      </c>
       <c r="J70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K70" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B71" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C71">
         <v>2022</v>
@@ -4633,30 +4624,30 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H71" t="s">
         <v>297</v>
       </c>
       <c r="I71" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J71" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K71" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B72" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C72">
         <v>2022</v>
@@ -4665,30 +4656,30 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G72" t="s">
+        <v>300</v>
+      </c>
+      <c r="H72" t="s">
         <v>301</v>
       </c>
-      <c r="H72" t="s">
-        <v>300</v>
-      </c>
       <c r="I72" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J72" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B73" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="C73">
         <v>2022</v>
@@ -4697,30 +4688,30 @@
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G73" t="s">
+        <v>304</v>
+      </c>
+      <c r="H73" t="s">
+        <v>305</v>
+      </c>
+      <c r="I73" t="s">
         <v>303</v>
       </c>
-      <c r="H73" t="s">
-        <v>304</v>
-      </c>
-      <c r="I73" t="s">
-        <v>305</v>
-      </c>
       <c r="J73" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K73" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="C74">
         <v>2022</v>
@@ -4729,7 +4720,7 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G74" t="s">
         <v>307</v>
@@ -4738,21 +4729,21 @@
         <v>308</v>
       </c>
       <c r="I74" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="J74" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K74" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B75" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C75">
         <v>2022</v>
@@ -4761,123 +4752,129 @@
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G75" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H75" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I75" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J75" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K75" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B76" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C76">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G76" t="s">
+        <v>315</v>
+      </c>
+      <c r="H76" t="s">
+        <v>316</v>
+      </c>
+      <c r="I76" t="s">
         <v>314</v>
       </c>
-      <c r="H76" t="s">
-        <v>315</v>
-      </c>
-      <c r="I76" t="s">
-        <v>316</v>
-      </c>
       <c r="J76" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K76" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B77" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C77">
         <v>2023</v>
       </c>
       <c r="D77" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="E77" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77" t="s">
+        <v>437</v>
       </c>
       <c r="G77" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H77" t="s">
-        <v>170</v>
+        <v>438</v>
       </c>
       <c r="I77" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J77" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K77" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B78" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C78">
         <v>2023</v>
       </c>
       <c r="D78" t="s">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="E78" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H78" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I78" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J78" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K78" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B79" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C79">
         <v>2023</v>
@@ -4886,33 +4883,33 @@
         <v>81</v>
       </c>
       <c r="E79" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="F79" t="s">
+        <v>442</v>
+      </c>
+      <c r="G79" t="s">
+        <v>443</v>
+      </c>
+      <c r="H79" t="s">
         <v>444</v>
       </c>
-      <c r="G79" t="s">
-        <v>447</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>445</v>
       </c>
-      <c r="I79" t="s">
-        <v>446</v>
-      </c>
       <c r="J79" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K79" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>446</v>
       </c>
       <c r="C80">
         <v>2023</v>
@@ -4920,31 +4917,31 @@
       <c r="D80" t="s">
         <v>82</v>
       </c>
-      <c r="E80" t="s">
-        <v>105</v>
+      <c r="F80" t="s">
+        <v>447</v>
       </c>
       <c r="G80" t="s">
-        <v>322</v>
+        <v>448</v>
       </c>
       <c r="H80" t="s">
-        <v>323</v>
-      </c>
-      <c r="I80" t="s">
-        <v>324</v>
+        <v>449</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="J80" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K80" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B81" t="s">
-        <v>448</v>
+        <v>322</v>
       </c>
       <c r="C81">
         <v>2023</v>
@@ -4953,33 +4950,30 @@
         <v>83</v>
       </c>
       <c r="E81" t="s">
-        <v>181</v>
-      </c>
-      <c r="F81" t="s">
-        <v>449</v>
+        <v>102</v>
       </c>
       <c r="G81" t="s">
-        <v>450</v>
+        <v>323</v>
       </c>
       <c r="H81" t="s">
-        <v>451</v>
+        <v>324</v>
       </c>
       <c r="I81" t="s">
-        <v>452</v>
+        <v>325</v>
       </c>
       <c r="J81" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B82" t="s">
-        <v>453</v>
+        <v>326</v>
       </c>
       <c r="C82">
         <v>2023</v>
@@ -4987,255 +4981,255 @@
       <c r="D82" t="s">
         <v>84</v>
       </c>
-      <c r="F82" t="s">
-        <v>454</v>
+      <c r="E82" t="s">
+        <v>102</v>
       </c>
       <c r="G82" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="H82" t="s">
-        <v>456</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>457</v>
+        <v>328</v>
+      </c>
+      <c r="I82" t="s">
+        <v>329</v>
       </c>
       <c r="J82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K82" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B83" t="s">
-        <v>325</v>
+        <v>451</v>
       </c>
       <c r="C83">
         <v>2023</v>
       </c>
       <c r="D83" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>452</v>
+      </c>
+      <c r="F83" t="s">
+        <v>453</v>
       </c>
       <c r="G83" t="s">
-        <v>326</v>
+        <v>454</v>
       </c>
       <c r="H83" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="I83" t="s">
-        <v>328</v>
+        <v>456</v>
       </c>
       <c r="J83" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K83" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B84" t="s">
-        <v>329</v>
+        <v>460</v>
       </c>
       <c r="C84">
         <v>2023</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G84" t="s">
-        <v>330</v>
+        <v>458</v>
       </c>
       <c r="H84" t="s">
-        <v>331</v>
+        <v>459</v>
       </c>
       <c r="I84" t="s">
-        <v>332</v>
+        <v>457</v>
       </c>
       <c r="J84" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B85" t="s">
-        <v>458</v>
+        <v>333</v>
       </c>
       <c r="C85">
         <v>2023</v>
       </c>
       <c r="D85" t="s">
-        <v>204</v>
-      </c>
-      <c r="E85" t="s">
-        <v>459</v>
-      </c>
-      <c r="F85" t="s">
-        <v>460</v>
+        <v>202</v>
       </c>
       <c r="G85" t="s">
-        <v>461</v>
+        <v>331</v>
       </c>
       <c r="H85" t="s">
-        <v>462</v>
+        <v>332</v>
       </c>
       <c r="I85" t="s">
-        <v>463</v>
+        <v>330</v>
       </c>
       <c r="J85" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K85" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B86" t="s">
-        <v>467</v>
+        <v>334</v>
       </c>
       <c r="C86">
         <v>2023</v>
       </c>
       <c r="D86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E86" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G86" t="s">
-        <v>465</v>
+        <v>335</v>
       </c>
       <c r="H86" t="s">
-        <v>466</v>
+        <v>336</v>
       </c>
       <c r="I86" t="s">
-        <v>464</v>
+        <v>337</v>
       </c>
       <c r="J86" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K86" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B87" t="s">
-        <v>336</v>
+        <v>464</v>
       </c>
       <c r="C87">
         <v>2023</v>
       </c>
       <c r="D87" t="s">
-        <v>205</v>
+        <v>87</v>
+      </c>
+      <c r="F87" t="s">
+        <v>463</v>
       </c>
       <c r="G87" t="s">
-        <v>334</v>
+        <v>461</v>
       </c>
       <c r="H87" t="s">
-        <v>335</v>
+        <v>462</v>
       </c>
       <c r="I87" t="s">
-        <v>333</v>
+        <v>485</v>
       </c>
       <c r="J87" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K87" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B88" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C88">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D88" t="s">
         <v>88</v>
       </c>
       <c r="E88" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="G88" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H88" t="s">
+        <v>341</v>
+      </c>
+      <c r="I88" t="s">
         <v>339</v>
       </c>
-      <c r="I88" t="s">
-        <v>340</v>
-      </c>
       <c r="J88" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B89" t="s">
-        <v>471</v>
+        <v>342</v>
       </c>
       <c r="C89">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D89" t="s">
         <v>89</v>
       </c>
-      <c r="F89" t="s">
-        <v>470</v>
+      <c r="E89" t="s">
+        <v>102</v>
       </c>
       <c r="G89" t="s">
-        <v>468</v>
+        <v>343</v>
       </c>
       <c r="H89" t="s">
-        <v>469</v>
+        <v>349</v>
       </c>
       <c r="I89" t="s">
-        <v>493</v>
+        <v>344</v>
       </c>
       <c r="J89" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K89" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B90" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C90">
         <v>2024</v>
@@ -5244,30 +5238,30 @@
         <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="G90" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H90" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I90" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="J90" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K90" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B91" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C91">
         <v>2024</v>
@@ -5276,126 +5270,126 @@
         <v>91</v>
       </c>
       <c r="E91" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G91" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H91" t="s">
+        <v>351</v>
+      </c>
+      <c r="I91" t="s">
         <v>352</v>
       </c>
-      <c r="I91" t="s">
-        <v>347</v>
-      </c>
       <c r="J91" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K91" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B92" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C92">
         <v>2024</v>
       </c>
       <c r="D92" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G92" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H92" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="I92" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="J92" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K92" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B93" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C93">
         <v>2024</v>
       </c>
       <c r="D93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G93" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H93" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="I93" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="J93" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K93" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B94" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C94">
         <v>2024</v>
       </c>
       <c r="D94" t="s">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H94" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="I94" t="s">
-        <v>360</v>
+        <v>486</v>
       </c>
       <c r="J94" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K94" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B95" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C95">
         <v>2024</v>
@@ -5404,86 +5398,22 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G95" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H95" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="I95" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="J95" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K95" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>484</v>
-      </c>
-      <c r="B96" t="s">
-        <v>365</v>
-      </c>
-      <c r="C96">
-        <v>2024</v>
-      </c>
-      <c r="D96" t="s">
-        <v>95</v>
-      </c>
-      <c r="E96" t="s">
-        <v>105</v>
-      </c>
-      <c r="G96" t="s">
-        <v>366</v>
-      </c>
-      <c r="H96" t="s">
-        <v>367</v>
-      </c>
-      <c r="I96" t="s">
-        <v>494</v>
-      </c>
-      <c r="J96" t="s">
-        <v>103</v>
-      </c>
-      <c r="K96" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>485</v>
-      </c>
-      <c r="B97" t="s">
-        <v>368</v>
-      </c>
-      <c r="C97">
-        <v>2024</v>
-      </c>
-      <c r="D97" t="s">
-        <v>96</v>
-      </c>
-      <c r="E97" t="s">
-        <v>105</v>
-      </c>
-      <c r="G97" t="s">
-        <v>369</v>
-      </c>
-      <c r="H97" t="s">
-        <v>370</v>
-      </c>
-      <c r="I97" t="s">
-        <v>371</v>
-      </c>
-      <c r="J97" t="s">
-        <v>103</v>
-      </c>
-      <c r="K97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
